--- a/planing/planing.xlsx
+++ b/planing/planing.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_D\edi_sh_new\planing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92810CB-7193-4F9E-B402-6BB9BE365E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="34" r:id="rId1"/>
-    <sheet name="View.vue" sheetId="28" r:id="rId2"/>
-    <sheet name="테이블" sheetId="15" r:id="rId3"/>
-    <sheet name="db_tb" sheetId="33" r:id="rId4"/>
-    <sheet name="Sheet8" sheetId="31" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="22" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="29" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="26" r:id="rId8"/>
-    <sheet name="Sheet2 (2)" sheetId="27" r:id="rId9"/>
-    <sheet name="Sheet1 (2)" sheetId="23" r:id="rId10"/>
-    <sheet name="Sheet4 (2)" sheetId="21" r:id="rId11"/>
-    <sheet name="Sheet4" sheetId="20" r:id="rId12"/>
+    <sheet name="Sheet1 (3)" sheetId="35" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="34" r:id="rId2"/>
+    <sheet name="View.vue" sheetId="28" r:id="rId3"/>
+    <sheet name="테이블" sheetId="15" r:id="rId4"/>
+    <sheet name="db_tb" sheetId="33" r:id="rId5"/>
+    <sheet name="Sheet8" sheetId="31" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="29" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="26" r:id="rId9"/>
+    <sheet name="Sheet2 (2)" sheetId="27" r:id="rId10"/>
+    <sheet name="Sheet1 (2)" sheetId="23" r:id="rId11"/>
+    <sheet name="Sheet4 (2)" sheetId="21" r:id="rId12"/>
+    <sheet name="Sheet4" sheetId="20" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">View.vue!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">View.vue!$A$2:$H$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,18 +50,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="640">
   <si>
     <t>제품 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>문전약국 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>매출 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체명</t>
@@ -98,94 +98,94 @@
   </si>
   <si>
     <t>수수료 등급</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>보험코드</t>
   </si>
   <si>
     <t>저장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>병의원명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>사업자등록번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>주소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>원장명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>거래처코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>취소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>등록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>□</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>대표자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>도매매출 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>직거래매출 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>상세</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>삭제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>companies</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>승인여부</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>email</t>
@@ -195,7 +195,7 @@
   </si>
   <si>
     <t>created_at</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>company_name</t>
@@ -235,110 +235,110 @@
   </si>
   <si>
     <t>등록요청일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>updated_at</t>
   </si>
   <si>
     <t>수정일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>user_type</t>
   </si>
   <si>
     <t>회원구분</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>admin, user</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>company_group</t>
   </si>
   <si>
     <t>그룹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>assigned_pharmacist_contact</t>
   </si>
   <si>
     <t>관리자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>???</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>receive_email</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>구분</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>active, passive</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>목록 표시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>컬럼명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>항목</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>디폴트값</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>미승인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>활성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호 학인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>수정 불가</t>
   </si>
   <si>
     <t>삭제는 정책적으로 구현하지 않음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>정보 수정시 이용자는 내 정보에서 수정 (메뉴바 상단 &gt; 로그인 계정 정보(test5@test.com) 클릭 &gt; 서브 메뉴 - 내 정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>상세 보기 &gt; 수정</t>
@@ -387,51 +387,51 @@
   </si>
   <si>
     <t>아이디(이메일)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>미구현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>상세 화면에서 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>필수 항목</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호 초기화 기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호 변경 기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>등록 정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>관리 정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체 정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>계정 정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>관리자 비밀번호 초기화 asdf1234</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>승인(approve), 미승인(pending), 거부(reject) 불필요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>admin 추가</t>
@@ -444,19 +444,19 @@
   </si>
   <si>
     <t>admin-업체상세</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>user-수정가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>admin-수정가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>신규 업체 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>계정 정보</t>
@@ -508,19 +508,19 @@
   </si>
   <si>
     <t>이메일(수신용)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>취소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>저장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -536,7 +536,7 @@
       </rPr>
       <t>ⅴ</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -552,505 +552,505 @@
       </rPr>
       <t>ⅴ</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체 상세 정보 및 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>등록 정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>등록일시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>최종 수정일시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>최종 수정자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>등록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>삭제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1. 등록(추가)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2. 상세 (관리자)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3. 수정 (관리자)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>notice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>필수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>제목</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>첨부파일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>조회수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>작성일시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>너비</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>아이디(이메일) *</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호 *</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호 확인 *</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>업체명 *</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>사업자등록번호 *</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>대표자 *</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>사업장 소재지 *</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>유선전화</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>담당자 *</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>휴대폰 번호 *</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>휴대폰 번호 2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>수신용 이메일</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>구분</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>수수료 등급</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>관리자</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>승인여부</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>신규 업체 등록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>&lt;------------------------------------------------------------- 960px -------------------------------------------------------------&gt;</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>등록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>신일제약 실적관리 시스템</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>대표자명 *</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>담당자명 *</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>&lt;----------------------------------------- 720px ----------------------------------------&gt;</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>대표자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>사업장소재지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>수수료등급</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>승인처리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>관리자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>공지사항</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1. 신규 등록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>아이디(이메일)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호 초기화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>*** 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>** 등록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>*** 상세(정보)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>신규 업체 등록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체 정보 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체 상세 정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호 확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비밀번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>사업자등록번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>대표자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>…</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">기준월 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">제품명 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">보험코드 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">약가 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">수수료등급 A </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">수수료등급 B </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">표준코드 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>단위/포장형태</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>단위수량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>상태</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>거래처코드, 병의원명, 사업자등록번호, 원장명, 주소, 업체 수,업체명 ,업체 사업자등록번호, 삭제, 추가</t>
   </si>
   <si>
     <t>거래처코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>병의원명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>원장명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>주소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체 수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>추가</t>
   </si>
   <si>
     <t>서울병원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>111-11-11111</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>김원장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>서울시..</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>인천시..</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>경기도..</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>강원도..</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>인천병원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>경기병원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>강원병원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>이원장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>박원장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>최원장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>222-22-22222</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>333-33-33333</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ⅴ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>광주병원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>555-55-55555</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>444-44-44444</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>윤원장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>광주시..</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ⅴ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>⇒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>000-00-00000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>사업자등록번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>사업장 소재지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>□</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체명, 사업자등록번호, 대표자명 검색</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체 지정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>지정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>거래처코드</t>
@@ -1069,35 +1069,35 @@
   </si>
   <si>
     <t>작업</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>삭제, 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>대표자명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>사업장 소재지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>product</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>clients-companies (modal)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AdminClientsAssignCompaniesView.vue</t>
@@ -1200,7 +1200,7 @@
   </si>
   <si>
     <t>목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>공지사항 관리</t>
@@ -1219,171 +1219,171 @@
   </si>
   <si>
     <t>목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>제품 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>정산내역서 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>등록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>상세</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>미승인 업체 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>승인 업체 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>담당업체 지정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>문전약국 지정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>파일명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>구분</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>대매뉴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>중메뉴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>상태</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>clients</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>약국코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>약국명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>주소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>pharmacies</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>clients-companies / clients-pharmacies</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>정산월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2025-05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>제품명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>보험코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>약가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>처방수량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>처방액</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>처방구분</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>제출기간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EDI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>처방월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2025-04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>합계액</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>처방수량합계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>처방액합계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>병원 선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>판교 정형외과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>후시딘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1399,333 +1399,333 @@
       </rPr>
       <t>▼</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>약국매출</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EDI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>최초 메뉴 집입시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>지금은 제출 기간이 아닙니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- 선택 불가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>병원명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>주소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>선택하면 자동으로 창 닫히기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- 디폴트 : 정산월 - 1월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>후시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>후시딘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>후시당</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>후시시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>제일후시캡슐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- 보험코드를 입력해도 제품명으로 보여주기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>∧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>자동으로 제품목록에서 불러오기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>약가 X 처방수량 계산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>오늘이 제출기간이고 활성화된 정산월이 있으면</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>오늘이 제출기간이 아니거나 활성화된 정산월이 없으면</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>7월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>10월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>11월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>12월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>8월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>9월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>5월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>6월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>처방월 선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>입력 시작 : 제품 선택 - 제품명 또는 보험코드 검색</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>처방 수량 입력 : 처방액 자동 계산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>자동 합계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>처방 구분 선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>처방구분까지 해서 한 행이라도 완성되면 등록 버튼 활성화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>이후부터 이동은 엔터 누를때마다 제품명 -&gt; 처방수량 -&gt; 다음 행 제품명 -&gt; 처방수량 -&gt; 다다음 행..</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>처방구분은 변경하기 전까진 위의 행 값을 그대로 가져옴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비고는 키보드 화살표 또는 마우스 클릭으로 선택해 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>등록 누르면 초기화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>등록한 내역은실적관리 &gt; 등록 현황에서 확인 가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>실적 입력 가능 기간인 정산월의 데이터는 수정 및 삭제 가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>가나정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>다라정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>마바정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>사아정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>어쩌구 저쩌구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>삭제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>삭제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- 삭제 -&gt; 삭제하시겠습니까? 확인 / 취소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- 추가 -&gt; 누른 아래에 빈 행 삽입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>마우스 드래그로 순서 변경 가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2025-06-02 ~ 2025-06-13</t>
   </si>
   <si>
     <t xml:space="preserve">제품명                                 보험코드                                 약가                                 ...                               </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>실적 등록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>처방구분</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>삭제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>(40px)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PerformanceRegisterList.vue</t>
   </si>
   <si>
     <t>실적 관리 &gt; 등록 현황</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>거래처명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>처방월</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업로드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>다운로드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>관리자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>공지사항 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>거래처 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>실적 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>정산내역서 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>공지사항 목록</t>
@@ -1741,71 +1741,71 @@
   </si>
   <si>
     <t>승인 업체 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>미승인 업체 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>담담업체 지정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>문전약국 지정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>도매매출 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>직거래매출 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>등록 현황</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>정산월 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>실적 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>월별 정산 목록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>대메뉴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>우선순위</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>흡수율 분석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>이용자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>공지사항 조회</t>
@@ -1818,11 +1818,11 @@
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>순번</t>
@@ -1979,7 +1979,7 @@
   </si>
   <si>
     <t>pharmacies</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>pharmacy_code</t>
@@ -2061,7 +2061,7 @@
   </si>
   <si>
     <t>products</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>client_company_assignments</t>
@@ -2092,7 +2092,7 @@
   </si>
   <si>
     <t>wholesale_sales(direct_sales)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>중간 보고</t>
@@ -2237,11 +2237,11 @@
   </si>
   <si>
     <t>지시사항</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>커서 답변</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>시간이 생각보다 오래 걸리네. 지금 보고 있는 파일까지만 하고, 중간 보고를 해줘.</t>
@@ -2251,27 +2251,27 @@
   </si>
   <si>
     <t>관리자 메뉴에서 "실적 입력" 메뉴 히든 처리 - App.vue 파일 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SideNavigationBar 컴포넌트에서도 "실적 입력" 메뉴를 숨겨야 합니다. 해당 부분을 주석 처리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>6_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>6_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
@@ -2284,21 +2284,132 @@
   </si>
   <si>
     <t>R_detail</t>
+  </si>
+  <si>
+    <t>최초 진입시</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 0 건</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>약가</t>
+  </si>
+  <si>
+    <t>처방액</t>
+  </si>
+  <si>
+    <t>처방구분</t>
+  </si>
+  <si>
+    <t>작업</t>
+  </si>
+  <si>
+    <t>&lt;- 행 고정</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-05 ⅴ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ⅴ  </t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EDI    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ⅴ</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가   삭제</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 없는행으로 간주</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1행 입력시</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 1 건</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 가모피드서방정15mg   ⅴ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>653805750</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>289</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가   삭제</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1행 입력 후 -&gt; 수량에서 엔터</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 가모피드서방정15mg   ⅴ</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>653805750</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 없는행으로 간주</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="180" formatCode="0.0%"/>
-    <numFmt numFmtId="183" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="181" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2306,6 +2417,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2653,6 +2771,59 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Noto Sans KR"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2722,7 +2893,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -3318,11 +3489,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right style="thick">
+        <color theme="9"/>
+      </right>
+      <top style="thick">
+        <color theme="9"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3330,182 +3545,182 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
@@ -3532,55 +3747,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -3616,50 +3831,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -3667,286 +3879,289 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="11" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="11" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="178" fontId="11" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
@@ -3955,97 +4170,97 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4057,11 +4272,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="45" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="45" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="45" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="45" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="50" fillId="0" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="표준 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 3" xfId="2"/>
+    <cellStyle name="표준 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4392,308 +4680,1183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="244"/>
+    <col min="2" max="2" width="5.875" style="244" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="243" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="244" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="244" customWidth="1"/>
+    <col min="6" max="9" width="9.375" style="244" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="244" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="244" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="244"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="C3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="206" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="B13"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="206" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17"/>
-      <c r="B17"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="C19" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="207">
-        <v>0.91041666666666676</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="11" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>605</v>
+    <row r="2" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="242" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="242"/>
+    </row>
+    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="244" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="245" t="s">
+        <v>616</v>
+      </c>
+      <c r="C6" s="245" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" s="245" t="s">
+        <v>467</v>
+      </c>
+      <c r="E6" s="245" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="245" t="s">
+        <v>617</v>
+      </c>
+      <c r="G6" s="245" t="s">
+        <v>469</v>
+      </c>
+      <c r="H6" s="245" t="s">
+        <v>618</v>
+      </c>
+      <c r="I6" s="245" t="s">
+        <v>619</v>
+      </c>
+      <c r="J6" s="245" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="245" t="s">
+        <v>620</v>
+      </c>
+      <c r="L6" s="246" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="247">
+        <v>1</v>
+      </c>
+      <c r="C7" s="247" t="s">
+        <v>622</v>
+      </c>
+      <c r="D7" s="248" t="s">
+        <v>623</v>
+      </c>
+      <c r="E7" s="247"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="247" t="s">
+        <v>624</v>
+      </c>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251" t="s">
+        <v>625</v>
+      </c>
+      <c r="L7" s="246" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="247"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="252"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="247"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="246"/>
+    </row>
+    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="247"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="252"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="247"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="246"/>
+    </row>
+    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="247"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="252"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="247"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="246"/>
+    </row>
+    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="252"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="247"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="246"/>
+    </row>
+    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="247"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="252"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="247"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="246"/>
+    </row>
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="247"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="252"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="250"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="246"/>
+    </row>
+    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="253" t="s">
+        <v>627</v>
+      </c>
+      <c r="C14" s="254"/>
+      <c r="D14" s="254"/>
+      <c r="E14" s="254"/>
+      <c r="F14" s="255"/>
+      <c r="G14" s="256">
+        <v>0</v>
+      </c>
+      <c r="H14" s="256">
+        <f>F14*G14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="250"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="246" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="242" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="242"/>
+    </row>
+    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="244" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="245" t="s">
+        <v>616</v>
+      </c>
+      <c r="C21" s="245" t="s">
+        <v>466</v>
+      </c>
+      <c r="D21" s="245" t="s">
+        <v>467</v>
+      </c>
+      <c r="E21" s="245" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="245" t="s">
+        <v>617</v>
+      </c>
+      <c r="G21" s="245" t="s">
+        <v>469</v>
+      </c>
+      <c r="H21" s="245" t="s">
+        <v>618</v>
+      </c>
+      <c r="I21" s="245" t="s">
+        <v>619</v>
+      </c>
+      <c r="J21" s="245" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="245" t="s">
+        <v>620</v>
+      </c>
+      <c r="L21" s="246" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="247">
+        <v>1</v>
+      </c>
+      <c r="C22" s="247" t="s">
+        <v>622</v>
+      </c>
+      <c r="D22" s="257" t="s">
+        <v>630</v>
+      </c>
+      <c r="E22" s="247" t="s">
+        <v>631</v>
+      </c>
+      <c r="F22" s="258" t="s">
+        <v>632</v>
+      </c>
+      <c r="G22" s="259">
+        <v>10</v>
+      </c>
+      <c r="H22" s="260">
+        <f>F22*G22</f>
+        <v>2890</v>
+      </c>
+      <c r="I22" s="247" t="s">
+        <v>624</v>
+      </c>
+      <c r="J22" s="250"/>
+      <c r="K22" s="251" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="247"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="247"/>
+      <c r="J23" s="250"/>
+      <c r="K23" s="251"/>
+    </row>
+    <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="247"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="252"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="247"/>
+      <c r="J24" s="250"/>
+      <c r="K24" s="251"/>
+    </row>
+    <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="247"/>
+      <c r="C25" s="247"/>
+      <c r="D25" s="252"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="247"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="251"/>
+    </row>
+    <row r="26" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="247"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="252"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="247"/>
+      <c r="J26" s="250"/>
+      <c r="K26" s="251"/>
+    </row>
+    <row r="27" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="247"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="252"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="247"/>
+      <c r="J27" s="250"/>
+      <c r="K27" s="251"/>
+    </row>
+    <row r="28" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="247"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="252"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="247"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="251"/>
+    </row>
+    <row r="29" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="253" t="s">
+        <v>634</v>
+      </c>
+      <c r="C29" s="254"/>
+      <c r="D29" s="254"/>
+      <c r="E29" s="254"/>
+      <c r="F29" s="255"/>
+      <c r="G29" s="261">
+        <f>SUM(G22:G28)</f>
+        <v>10</v>
+      </c>
+      <c r="H29" s="261">
+        <f>SUM(H22:H28)</f>
+        <v>2890</v>
+      </c>
+      <c r="I29" s="250"/>
+      <c r="J29" s="250"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="246" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="242" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="242"/>
+    </row>
+    <row r="34" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="244" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="245" t="s">
+        <v>616</v>
+      </c>
+      <c r="C36" s="245" t="s">
+        <v>466</v>
+      </c>
+      <c r="D36" s="245" t="s">
+        <v>467</v>
+      </c>
+      <c r="E36" s="245" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="245" t="s">
+        <v>617</v>
+      </c>
+      <c r="G36" s="245" t="s">
+        <v>469</v>
+      </c>
+      <c r="H36" s="245" t="s">
+        <v>618</v>
+      </c>
+      <c r="I36" s="245" t="s">
+        <v>619</v>
+      </c>
+      <c r="J36" s="245" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="245" t="s">
+        <v>620</v>
+      </c>
+      <c r="L36" s="246" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="247">
+        <v>1</v>
+      </c>
+      <c r="C37" s="247" t="s">
+        <v>622</v>
+      </c>
+      <c r="D37" s="262" t="s">
+        <v>636</v>
+      </c>
+      <c r="E37" s="247" t="s">
+        <v>637</v>
+      </c>
+      <c r="F37" s="249" t="s">
+        <v>632</v>
+      </c>
+      <c r="G37" s="249">
+        <v>10</v>
+      </c>
+      <c r="H37" s="249">
+        <f>F37*G37</f>
+        <v>2890</v>
+      </c>
+      <c r="I37" s="247" t="s">
+        <v>624</v>
+      </c>
+      <c r="J37" s="250"/>
+      <c r="K37" s="251" t="s">
+        <v>625</v>
+      </c>
+      <c r="L37" s="246"/>
+    </row>
+    <row r="38" spans="2:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="247" t="s">
+        <v>638</v>
+      </c>
+      <c r="C38" s="263" t="s">
+        <v>622</v>
+      </c>
+      <c r="D38" s="248" t="s">
+        <v>623</v>
+      </c>
+      <c r="E38" s="264"/>
+      <c r="F38" s="249"/>
+      <c r="G38" s="249"/>
+      <c r="H38" s="249"/>
+      <c r="I38" s="247" t="s">
+        <v>624</v>
+      </c>
+      <c r="J38" s="250"/>
+      <c r="K38" s="251" t="s">
+        <v>625</v>
+      </c>
+      <c r="L38" s="246" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="247"/>
+      <c r="C39" s="247"/>
+      <c r="D39" s="252"/>
+      <c r="E39" s="247"/>
+      <c r="F39" s="249"/>
+      <c r="G39" s="249"/>
+      <c r="H39" s="249"/>
+      <c r="I39" s="247"/>
+      <c r="J39" s="250"/>
+      <c r="K39" s="251"/>
+      <c r="L39" s="246"/>
+    </row>
+    <row r="40" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="247"/>
+      <c r="C40" s="247"/>
+      <c r="D40" s="252"/>
+      <c r="E40" s="247"/>
+      <c r="F40" s="249"/>
+      <c r="G40" s="249"/>
+      <c r="H40" s="249"/>
+      <c r="I40" s="247"/>
+      <c r="J40" s="250"/>
+      <c r="K40" s="251"/>
+      <c r="L40" s="246"/>
+    </row>
+    <row r="41" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="247"/>
+      <c r="C41" s="247"/>
+      <c r="D41" s="252"/>
+      <c r="E41" s="247"/>
+      <c r="F41" s="249"/>
+      <c r="G41" s="249"/>
+      <c r="H41" s="249"/>
+      <c r="I41" s="247"/>
+      <c r="J41" s="250"/>
+      <c r="K41" s="251"/>
+      <c r="L41" s="246"/>
+    </row>
+    <row r="42" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="247"/>
+      <c r="C42" s="247"/>
+      <c r="D42" s="252"/>
+      <c r="E42" s="247"/>
+      <c r="F42" s="249"/>
+      <c r="G42" s="249"/>
+      <c r="H42" s="249"/>
+      <c r="I42" s="247"/>
+      <c r="J42" s="250"/>
+      <c r="K42" s="251"/>
+      <c r="L42" s="246"/>
+    </row>
+    <row r="43" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="247"/>
+      <c r="C43" s="247"/>
+      <c r="D43" s="252"/>
+      <c r="E43" s="247"/>
+      <c r="F43" s="249"/>
+      <c r="G43" s="249"/>
+      <c r="H43" s="249"/>
+      <c r="I43" s="247"/>
+      <c r="J43" s="250"/>
+      <c r="K43" s="251"/>
+      <c r="L43" s="246"/>
+    </row>
+    <row r="44" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="253" t="s">
+        <v>634</v>
+      </c>
+      <c r="C44" s="254"/>
+      <c r="D44" s="265"/>
+      <c r="E44" s="254"/>
+      <c r="F44" s="255"/>
+      <c r="G44" s="261">
+        <f>SUM(G37:G43)</f>
+        <v>10</v>
+      </c>
+      <c r="H44" s="261">
+        <f>SUM(H37:H43)</f>
+        <v>2890</v>
+      </c>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="251"/>
+      <c r="L44" s="246" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="3">
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B44:F44"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:V47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.625" style="18"/>
+    <col min="2" max="2" width="4.625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="58"/>
+    <col min="6" max="6" width="8.625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="18"/>
+    <col min="10" max="10" width="12.625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="58" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="18" customWidth="1"/>
+    <col min="13" max="14" width="8.625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="12.625" style="58"/>
+    <col min="17" max="17" width="8.625" style="58" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="6.625" style="58" customWidth="1"/>
+    <col min="20" max="20" width="12.625" style="18"/>
+    <col min="21" max="21" width="12.625" style="18" customWidth="1"/>
+    <col min="22" max="22" width="6.625" style="58" customWidth="1"/>
+    <col min="23" max="23" width="10.625" style="18" customWidth="1"/>
+    <col min="24" max="16384" width="12.625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="113" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="3:12" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="18"/>
+    </row>
+    <row r="17" spans="3:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="I17" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="113" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="H18" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="I18" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="K18" s="116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="H19" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="H22" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="3:12" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="114"/>
+    </row>
+    <row r="26" spans="3:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="I26" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="113" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="K27" s="116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H28" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="I28" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="J28" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" s="116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="I29" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="I30" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H31" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="I31" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="H32" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="I32" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="3:11" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="37" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="120" t="s">
+        <v>258</v>
+      </c>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="122"/>
+    </row>
+    <row r="41" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="113" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="233" t="s">
+        <v>255</v>
+      </c>
+      <c r="H41" s="233"/>
+    </row>
+    <row r="42" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G41:H41"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:X23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -4974,13 +6137,13 @@
     <mergeCell ref="E2:W2"/>
     <mergeCell ref="E4:W4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -5388,14 +6551,14 @@
   <mergeCells count="1">
     <mergeCell ref="P23:Q23"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -5953,13 +7116,314 @@
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="E46:I46"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="C3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="206" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="206" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="B17"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C19" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="207">
+        <v>0.91041666666666676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6862,14 +8326,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <autoFilter ref="A2:H2"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N168"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -8771,14 +10235,14 @@
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="B24:B26"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -9980,16 +11444,16 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -10439,14 +11903,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:AI32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -10942,13 +12406,13 @@
     <mergeCell ref="AB31:AD31"/>
     <mergeCell ref="AF31:AH31"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AE233"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -12579,14 +14043,14 @@
     <mergeCell ref="I72:I73"/>
     <mergeCell ref="H49:J49"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AB27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -13078,608 +14542,7 @@
   <mergeCells count="1">
     <mergeCell ref="F21:G21"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="C7:V47"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.625" style="18"/>
-    <col min="2" max="2" width="4.625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="58"/>
-    <col min="6" max="6" width="8.625" style="58" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="58" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="18"/>
-    <col min="10" max="10" width="12.625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="58" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="18" customWidth="1"/>
-    <col min="13" max="14" width="8.625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="58"/>
-    <col min="17" max="17" width="8.625" style="58" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="18" customWidth="1"/>
-    <col min="19" max="19" width="6.625" style="58" customWidth="1"/>
-    <col min="20" max="20" width="12.625" style="18"/>
-    <col min="21" max="21" width="12.625" style="18" customWidth="1"/>
-    <col min="22" max="22" width="6.625" style="58" customWidth="1"/>
-    <col min="23" max="23" width="10.625" style="18" customWidth="1"/>
-    <col min="24" max="16384" width="12.625" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="113" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="113" t="s">
-        <v>221</v>
-      </c>
-      <c r="I7" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="113" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J8" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="H9" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J9" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="H10" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="I10" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H11" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J11" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="114" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="H12" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="I12" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J12" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="3:12" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="K13" s="18"/>
-    </row>
-    <row r="17" spans="3:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="113" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="113" t="s">
-        <v>221</v>
-      </c>
-      <c r="I17" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="113" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="H18" s="118" t="s">
-        <v>225</v>
-      </c>
-      <c r="I18" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="K18" s="116" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="H19" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="I19" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J19" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H21" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J21" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="114" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="H22" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="I22" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J22" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="3:12" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="114" t="s">
-        <v>215</v>
-      </c>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="114"/>
-    </row>
-    <row r="26" spans="3:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="113" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="113" t="s">
-        <v>221</v>
-      </c>
-      <c r="I26" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="113" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="J27" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="K27" s="116" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H28" s="118" t="s">
-        <v>225</v>
-      </c>
-      <c r="I28" s="70" t="s">
-        <v>240</v>
-      </c>
-      <c r="J28" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="K28" s="116" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="H29" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="I29" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J29" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="K29" s="18"/>
-    </row>
-    <row r="30" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="H30" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="I30" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J30" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="K30" s="18"/>
-    </row>
-    <row r="31" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H31" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="I31" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J31" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="3:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="114" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="E32" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="F32" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="H32" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="I32" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J32" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="3:11" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="114" t="s">
-        <v>215</v>
-      </c>
-      <c r="K33" s="18"/>
-    </row>
-    <row r="37" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="120" t="s">
-        <v>258</v>
-      </c>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="122"/>
-    </row>
-    <row r="41" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="233" t="s">
-        <v>255</v>
-      </c>
-      <c r="H41" s="233"/>
-    </row>
-    <row r="42" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G47" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="58" t="s">
-        <v>260</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G41:H41"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/planing/planing.xlsx
+++ b/planing/planing.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_D\edi_sh_new\planing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885EED59-C7DA-4019-8CDC-C3CED8ED9D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="36" r:id="rId1"/>
@@ -31,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">View.vue!$A$2:$F$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="710">
   <si>
     <t>제품 관리</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2605,11 +2604,43 @@
     <t>AdminPerformanceWholeView.vue</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>직거래매출자료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>direct_sales</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도매매출자료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholesale_sales</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>client_company_assignments</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원-업체 매핑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원-약국 매핑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>client_pharmacy_assignments</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
@@ -3804,7 +3835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4489,9 +4520,6 @@
     <xf numFmtId="49" fontId="45" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4501,18 +4529,12 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="50" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4623,13 +4645,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="표준 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="표준 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 3" xfId="2"/>
+    <cellStyle name="표준 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4960,1266 +4997,1771 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA0F26C-0193-4C20-9CFF-7E374A89FC67}">
-  <dimension ref="B2:F106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F159"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="25.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="271"/>
+    <col min="2" max="2" width="25.375" style="271" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.625" style="271" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="16384" width="9" style="271"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="270" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="272" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="229" t="s">
+      <c r="B5" s="228" t="s">
         <v>504</v>
       </c>
-      <c r="C5" s="229" t="s">
+      <c r="C5" s="228" t="s">
         <v>505</v>
       </c>
-      <c r="D5" s="230" t="s">
+      <c r="D5" s="229" t="s">
         <v>506</v>
       </c>
-      <c r="E5" s="230" t="s">
+      <c r="E5" s="229" t="s">
         <v>507</v>
       </c>
-      <c r="F5" s="231"/>
+      <c r="F5" s="230"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="232" t="s">
+      <c r="B6" s="273" t="s">
         <v>479</v>
       </c>
-      <c r="C6" s="232" t="s">
+      <c r="C6" s="273" t="s">
         <v>480</v>
       </c>
-      <c r="D6" s="233" t="s">
+      <c r="D6" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="E6" s="233" t="s">
+      <c r="E6" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="F6" s="234"/>
+      <c r="F6" s="232"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="232" t="s">
+      <c r="B7" s="273" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="232" t="s">
+      <c r="C7" s="273" t="s">
         <v>483</v>
       </c>
-      <c r="D7" s="233" t="s">
+      <c r="D7" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="E7" s="233" t="s">
+      <c r="E7" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="F7" s="234"/>
+      <c r="F7" s="232"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="232" t="s">
+      <c r="B8" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="232" t="s">
+      <c r="C8" s="273" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E8" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F8" s="234"/>
+      <c r="D8" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E8" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F8" s="232"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="232" t="s">
+      <c r="B9" s="273" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="232" t="s">
+      <c r="C9" s="273" t="s">
         <v>485</v>
       </c>
-      <c r="D9" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E9" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F9" s="234"/>
+      <c r="D9" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E9" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F9" s="232"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="232" t="s">
+      <c r="B10" s="273" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="232" t="s">
+      <c r="C10" s="273" t="s">
         <v>486</v>
       </c>
-      <c r="D10" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E10" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F10" s="234"/>
+      <c r="D10" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E10" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F10" s="232"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="232" t="s">
+      <c r="B11" s="273" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="232" t="s">
+      <c r="C11" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E11" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F11" s="234"/>
+      <c r="D11" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E11" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F11" s="232"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="232" t="s">
+      <c r="B12" s="273" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="235" t="s">
+      <c r="C12" s="274" t="s">
         <v>487</v>
       </c>
-      <c r="D12" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E12" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F12" s="234"/>
+      <c r="D12" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E12" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F12" s="232"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="232" t="s">
+      <c r="B13" s="273" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="232" t="s">
+      <c r="C13" s="273" t="s">
         <v>488</v>
       </c>
-      <c r="D13" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E13" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F13" s="234"/>
+      <c r="D13" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E13" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F13" s="232"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="232" t="s">
+      <c r="B14" s="273" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="232" t="s">
+      <c r="C14" s="273" t="s">
         <v>489</v>
       </c>
-      <c r="D14" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E14" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F14" s="234"/>
+      <c r="D14" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E14" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F14" s="232"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="273" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="235" t="s">
+      <c r="C15" s="274" t="s">
         <v>487</v>
       </c>
-      <c r="D15" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E15" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F15" s="234"/>
+      <c r="D15" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E15" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F15" s="232"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="232" t="s">
+      <c r="B16" s="273" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="232" t="s">
+      <c r="C16" s="273" t="s">
         <v>490</v>
       </c>
-      <c r="D16" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E16" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F16" s="234"/>
+      <c r="D16" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E16" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F16" s="232"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="232" t="s">
+      <c r="B17" s="273" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="232" t="s">
+      <c r="C17" s="273" t="s">
         <v>491</v>
       </c>
-      <c r="D17" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E17" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F17" s="234"/>
+      <c r="D17" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E17" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F17" s="232"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="232" t="s">
+      <c r="B18" s="273" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="235" t="s">
+      <c r="C18" s="274" t="s">
         <v>487</v>
       </c>
-      <c r="D18" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E18" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F18" s="234"/>
+      <c r="D18" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E18" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F18" s="232"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="232" t="s">
+      <c r="B19" s="273" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="232" t="s">
+      <c r="C19" s="273" t="s">
         <v>495</v>
       </c>
-      <c r="D19" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E19" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F19" s="234"/>
+      <c r="D19" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E19" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F19" s="232"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="232" t="s">
+      <c r="B20" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="232" t="s">
+      <c r="C20" s="273" t="s">
         <v>496</v>
       </c>
-      <c r="D20" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E20" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F20" s="234"/>
+      <c r="D20" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E20" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F20" s="232"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="232" t="s">
+      <c r="B21" s="273" t="s">
         <v>497</v>
       </c>
-      <c r="C21" s="232" t="s">
+      <c r="C21" s="273" t="s">
         <v>641</v>
       </c>
-      <c r="D21" s="233" t="s">
+      <c r="D21" s="231" t="s">
         <v>493</v>
       </c>
-      <c r="E21" s="233" t="s">
+      <c r="E21" s="231" t="s">
         <v>494</v>
       </c>
-      <c r="F21" s="234"/>
+      <c r="F21" s="232"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="232" t="s">
+      <c r="B22" s="273" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="232" t="s">
+      <c r="C22" s="273" t="s">
         <v>642</v>
       </c>
-      <c r="D22" s="233" t="s">
+      <c r="D22" s="231" t="s">
         <v>493</v>
       </c>
-      <c r="E22" s="233" t="s">
+      <c r="E22" s="231" t="s">
         <v>494</v>
       </c>
-      <c r="F22" s="234"/>
+      <c r="F22" s="232"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="232" t="s">
+      <c r="B23" s="273" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="232" t="s">
+      <c r="C23" s="273" t="s">
         <v>500</v>
       </c>
-      <c r="D23" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E23" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F23" s="234"/>
+      <c r="D23" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E23" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F23" s="232"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="232" t="s">
+      <c r="B24" s="273" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="232" t="s">
+      <c r="C24" s="273" t="s">
         <v>501</v>
       </c>
-      <c r="D24" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E24" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F24" s="234"/>
+      <c r="D24" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E24" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F24" s="232"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="232" t="s">
+      <c r="B25" s="273" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="232" t="s">
+      <c r="C25" s="273" t="s">
         <v>502</v>
       </c>
-      <c r="D25" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E25" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F25" s="234"/>
+      <c r="D25" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E25" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F25" s="232"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="232" t="s">
+      <c r="B26" s="273" t="s">
         <v>503</v>
       </c>
-      <c r="C26" s="232" t="s">
+      <c r="C26" s="273" t="s">
         <v>643</v>
       </c>
-      <c r="D26" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E26" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F26" s="234"/>
+      <c r="D26" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E26" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="F26" s="232"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="232" t="s">
+      <c r="B27" s="273" t="s">
         <v>644</v>
       </c>
-      <c r="C27" s="232" t="s">
+      <c r="C27" s="273" t="s">
         <v>645</v>
       </c>
-      <c r="D27" s="233" t="s">
+      <c r="D27" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="E27" s="233" t="s">
+      <c r="E27" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="F27" s="234"/>
+      <c r="F27" s="232"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="232" t="s">
+      <c r="B28" s="273" t="s">
         <v>646</v>
       </c>
-      <c r="C28" s="232" t="s">
+      <c r="C28" s="273" t="s">
         <v>647</v>
       </c>
-      <c r="D28" s="233" t="s">
+      <c r="D28" s="231" t="s">
         <v>493</v>
       </c>
-      <c r="E28" s="233" t="s">
+      <c r="E28" s="231" t="s">
         <v>494</v>
       </c>
-      <c r="F28" s="234"/>
+      <c r="F28" s="232"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="232" t="s">
+      <c r="B29" s="273" t="s">
         <v>648</v>
       </c>
-      <c r="C29" s="232" t="s">
+      <c r="C29" s="273" t="s">
         <v>649</v>
       </c>
-      <c r="D29" s="233" t="s">
+      <c r="D29" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="E29" s="233" t="s">
+      <c r="E29" s="231" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="270" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="228" t="s">
+      <c r="B33" s="272" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="229" t="s">
+      <c r="B35" s="228" t="s">
         <v>504</v>
       </c>
-      <c r="C35" s="229" t="s">
+      <c r="C35" s="228" t="s">
         <v>505</v>
       </c>
-      <c r="D35" s="230" t="s">
+      <c r="D35" s="229" t="s">
         <v>506</v>
       </c>
-      <c r="E35" s="230" t="s">
+      <c r="E35" s="229" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="232" t="s">
+      <c r="B36" s="273" t="s">
         <v>479</v>
       </c>
-      <c r="C36" s="232" t="s">
+      <c r="C36" s="273" t="s">
         <v>517</v>
       </c>
-      <c r="D36" s="233" t="s">
+      <c r="D36" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="E36" s="233" t="s">
+      <c r="E36" s="231" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="232" t="s">
+      <c r="B37" s="273" t="s">
         <v>518</v>
       </c>
-      <c r="C37" s="232" t="s">
+      <c r="C37" s="273" t="s">
         <v>467</v>
       </c>
-      <c r="D37" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E37" s="233" t="s">
+      <c r="D37" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E37" s="231" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="232" t="s">
+      <c r="B38" s="273" t="s">
         <v>519</v>
       </c>
-      <c r="C38" s="232" t="s">
+      <c r="C38" s="273" t="s">
         <v>520</v>
       </c>
-      <c r="D38" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E38" s="233" t="s">
+      <c r="D38" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E38" s="231" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="232" t="s">
+      <c r="B39" s="273" t="s">
         <v>521</v>
       </c>
-      <c r="C39" s="232" t="s">
+      <c r="C39" s="273" t="s">
         <v>522</v>
       </c>
-      <c r="D39" s="233" t="s">
+      <c r="D39" s="231" t="s">
         <v>523</v>
       </c>
-      <c r="E39" s="233" t="s">
+      <c r="E39" s="231" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="232" t="s">
+      <c r="B40" s="273" t="s">
         <v>525</v>
       </c>
-      <c r="C40" s="232" t="s">
+      <c r="C40" s="273" t="s">
         <v>526</v>
       </c>
-      <c r="D40" s="233" t="s">
+      <c r="D40" s="231" t="s">
         <v>527</v>
       </c>
-      <c r="E40" s="233" t="s">
+      <c r="E40" s="231" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="232" t="s">
+      <c r="B41" s="273" t="s">
         <v>528</v>
       </c>
-      <c r="C41" s="232" t="s">
+      <c r="C41" s="273" t="s">
         <v>529</v>
       </c>
-      <c r="D41" s="233" t="s">
+      <c r="D41" s="231" t="s">
         <v>527</v>
       </c>
-      <c r="E41" s="233" t="s">
+      <c r="E41" s="231" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="232" t="s">
+      <c r="B42" s="273" t="s">
         <v>530</v>
       </c>
-      <c r="C42" s="232" t="s">
+      <c r="C42" s="273" t="s">
         <v>531</v>
       </c>
-      <c r="D42" s="233" t="s">
+      <c r="D42" s="231" t="s">
         <v>527</v>
       </c>
-      <c r="E42" s="233" t="s">
+      <c r="E42" s="231" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="232" t="s">
+      <c r="B43" s="273" t="s">
         <v>532</v>
       </c>
-      <c r="C43" s="232" t="s">
+      <c r="C43" s="273" t="s">
         <v>533</v>
       </c>
-      <c r="D43" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E43" s="233" t="s">
+      <c r="D43" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E43" s="231" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="232" t="s">
+      <c r="B44" s="273" t="s">
         <v>534</v>
       </c>
-      <c r="C44" s="232" t="s">
+      <c r="C44" s="273" t="s">
         <v>535</v>
       </c>
-      <c r="D44" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E44" s="233" t="s">
+      <c r="D44" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E44" s="231" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="232" t="s">
+      <c r="B45" s="273" t="s">
         <v>536</v>
       </c>
-      <c r="C45" s="232" t="s">
+      <c r="C45" s="273" t="s">
         <v>537</v>
       </c>
-      <c r="D45" s="233" t="s">
+      <c r="D45" s="231" t="s">
         <v>523</v>
       </c>
-      <c r="E45" s="233" t="s">
+      <c r="E45" s="231" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="232" t="s">
+      <c r="B46" s="273" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="232" t="s">
+      <c r="C46" s="273" t="s">
         <v>538</v>
       </c>
-      <c r="D46" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E46" s="233" t="s">
+      <c r="D46" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E46" s="231" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="232" t="s">
+      <c r="B47" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="232" t="s">
+      <c r="C47" s="273" t="s">
         <v>539</v>
       </c>
-      <c r="D47" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E47" s="233" t="s">
+      <c r="D47" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E47" s="231" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="232" t="s">
+      <c r="B48" s="273" t="s">
         <v>497</v>
       </c>
-      <c r="C48" s="232" t="s">
+      <c r="C48" s="273" t="s">
         <v>498</v>
       </c>
-      <c r="D48" s="233" t="s">
+      <c r="D48" s="231" t="s">
         <v>493</v>
       </c>
-      <c r="E48" s="233" t="s">
+      <c r="E48" s="231" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="232" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="273" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="232" t="s">
+      <c r="C49" s="273" t="s">
         <v>499</v>
       </c>
-      <c r="D49" s="233" t="s">
+      <c r="D49" s="231" t="s">
         <v>493</v>
       </c>
-      <c r="E49" s="233" t="s">
+      <c r="E49" s="231" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="232" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="273" t="s">
         <v>540</v>
       </c>
-      <c r="C50" s="232" t="s">
+      <c r="C50" s="273" t="s">
         <v>541</v>
       </c>
-      <c r="D50" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E50" s="233" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="19" t="s">
+      <c r="D50" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E50" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="270" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="228" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="272" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="229" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="228" t="s">
         <v>504</v>
       </c>
-      <c r="C56" s="229" t="s">
+      <c r="C56" s="228" t="s">
         <v>505</v>
       </c>
-      <c r="D56" s="230" t="s">
+      <c r="D56" s="229" t="s">
         <v>506</v>
       </c>
-      <c r="E56" s="230" t="s">
+      <c r="E56" s="229" t="s">
         <v>507</v>
       </c>
-      <c r="F56" s="231"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="232" t="s">
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="273" t="s">
         <v>479</v>
       </c>
-      <c r="C57" s="235" t="s">
+      <c r="C57" s="274" t="s">
         <v>487</v>
       </c>
-      <c r="D57" s="233" t="s">
+      <c r="D57" s="231" t="s">
         <v>508</v>
       </c>
-      <c r="E57" s="233" t="s">
+      <c r="E57" s="231" t="s">
         <v>509</v>
       </c>
-      <c r="F57" s="234"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="232" t="s">
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="273" t="s">
         <v>510</v>
       </c>
-      <c r="C58" s="235" t="s">
+      <c r="C58" s="274" t="s">
         <v>487</v>
       </c>
-      <c r="D58" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E58" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F58" s="234"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="232" t="s">
+      <c r="D58" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E58" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="273" t="s">
         <v>511</v>
       </c>
-      <c r="C59" s="235" t="s">
+      <c r="C59" s="274" t="s">
         <v>487</v>
       </c>
-      <c r="D59" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E59" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F59" s="234"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="232" t="s">
+      <c r="D59" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E59" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="273" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="235" t="s">
+      <c r="C60" s="274" t="s">
         <v>487</v>
       </c>
-      <c r="D60" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E60" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F60" s="234"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="232" t="s">
+      <c r="D60" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E60" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="273" t="s">
         <v>512</v>
       </c>
-      <c r="C61" s="235" t="s">
+      <c r="C61" s="274" t="s">
         <v>487</v>
       </c>
-      <c r="D61" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E61" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F61" s="234"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="232" t="s">
+      <c r="D61" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E61" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="273" t="s">
         <v>513</v>
       </c>
-      <c r="C62" s="235" t="s">
+      <c r="C62" s="274" t="s">
         <v>487</v>
       </c>
-      <c r="D62" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E62" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F62" s="234"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="232" t="s">
+      <c r="D62" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E62" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="273" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="235" t="s">
+      <c r="C63" s="274" t="s">
         <v>487</v>
       </c>
-      <c r="D63" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E63" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F63" s="234"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="232" t="s">
+      <c r="D63" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E63" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="235" t="s">
+      <c r="C64" s="274" t="s">
         <v>487</v>
       </c>
-      <c r="D64" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E64" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="F64" s="234"/>
+      <c r="D64" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E64" s="231" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="232" t="s">
+      <c r="B65" s="273" t="s">
         <v>497</v>
       </c>
-      <c r="C65" s="235" t="s">
+      <c r="C65" s="274" t="s">
         <v>487</v>
       </c>
-      <c r="D65" s="233" t="s">
+      <c r="D65" s="231" t="s">
         <v>493</v>
       </c>
-      <c r="E65" s="233" t="s">
+      <c r="E65" s="231" t="s">
         <v>494</v>
       </c>
-      <c r="F65" s="234"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="232" t="s">
+      <c r="B66" s="273" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="235" t="s">
+      <c r="C66" s="274" t="s">
         <v>487</v>
       </c>
-      <c r="D66" s="233" t="s">
+      <c r="D66" s="231" t="s">
         <v>493</v>
       </c>
-      <c r="E66" s="233" t="s">
+      <c r="E66" s="231" t="s">
         <v>494</v>
       </c>
-      <c r="F66" s="234"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="270" t="s">
+        <v>707</v>
+      </c>
+      <c r="F69" s="270"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="272" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="228" t="s">
+        <v>504</v>
+      </c>
+      <c r="C72" s="228" t="s">
+        <v>505</v>
+      </c>
+      <c r="D72" s="229" t="s">
+        <v>506</v>
+      </c>
+      <c r="E72" s="229" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="273" t="s">
+        <v>479</v>
+      </c>
+      <c r="C73" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D73" s="231" t="s">
+        <v>508</v>
+      </c>
+      <c r="E73" s="231" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="273" t="s">
+        <v>545</v>
+      </c>
+      <c r="C74" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D74" s="231" t="s">
+        <v>508</v>
+      </c>
+      <c r="E74" s="231" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="273" t="s">
+        <v>546</v>
+      </c>
+      <c r="C75" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D75" s="231" t="s">
+        <v>481</v>
+      </c>
+      <c r="E75" s="231" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="273" t="s">
+        <v>497</v>
+      </c>
+      <c r="C76" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D76" s="231" t="s">
+        <v>493</v>
+      </c>
+      <c r="E76" s="231" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="270" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="272" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="228" t="s">
+        <v>504</v>
+      </c>
+      <c r="C82" s="228" t="s">
+        <v>505</v>
+      </c>
+      <c r="D82" s="229" t="s">
+        <v>506</v>
+      </c>
+      <c r="E82" s="229" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="273" t="s">
+        <v>479</v>
+      </c>
+      <c r="C83" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D83" s="231" t="s">
+        <v>508</v>
+      </c>
+      <c r="E83" s="231" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="273" t="s">
+        <v>545</v>
+      </c>
+      <c r="C84" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D84" s="231" t="s">
+        <v>508</v>
+      </c>
+      <c r="E84" s="231" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="273" t="s">
+        <v>547</v>
+      </c>
+      <c r="C85" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D85" s="231" t="s">
+        <v>508</v>
+      </c>
+      <c r="E85" s="231" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="273" t="s">
+        <v>497</v>
+      </c>
+      <c r="C86" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D86" s="231" t="s">
+        <v>493</v>
+      </c>
+      <c r="E86" s="231" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="270" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="228" t="s">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="272" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="229" t="s">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="228" t="s">
         <v>504</v>
       </c>
-      <c r="C72" s="229" t="s">
+      <c r="C92" s="228" t="s">
         <v>505</v>
       </c>
-      <c r="D72" s="230" t="s">
+      <c r="D92" s="229" t="s">
         <v>506</v>
       </c>
-      <c r="E72" s="230" t="s">
+      <c r="E92" s="229" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="232" t="s">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93" s="273" t="s">
         <v>479</v>
       </c>
-      <c r="C73" s="232" t="s">
+      <c r="C93" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D73" s="233" t="s">
+      <c r="D93" s="231" t="s">
         <v>508</v>
       </c>
-      <c r="E73" s="233" t="s">
+      <c r="E93" s="231" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="232" t="s">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="273" t="s">
         <v>546</v>
       </c>
-      <c r="C74" s="232" t="s">
+      <c r="C94" s="273" t="s">
         <v>655</v>
       </c>
-      <c r="D74" s="233" t="s">
+      <c r="D94" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="E74" s="233" t="s">
+      <c r="E94" s="231" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="232" t="s">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="273" t="s">
         <v>656</v>
       </c>
-      <c r="C75" s="232" t="s">
+      <c r="C95" s="273" t="s">
         <v>657</v>
       </c>
-      <c r="D75" s="233" t="s">
+      <c r="D95" s="231" t="s">
         <v>658</v>
       </c>
-      <c r="E75" s="233" t="s">
+      <c r="E95" s="231" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="232" t="s">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="273" t="s">
         <v>660</v>
       </c>
-      <c r="C76" s="232" t="s">
+      <c r="C96" s="273" t="s">
         <v>661</v>
       </c>
-      <c r="D76" s="233" t="s">
+      <c r="D96" s="231" t="s">
         <v>658</v>
       </c>
-      <c r="E76" s="233" t="s">
+      <c r="E96" s="231" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="232" t="s">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="273" t="s">
         <v>545</v>
       </c>
-      <c r="C77" s="232" t="s">
+      <c r="C97" s="273" t="s">
         <v>662</v>
       </c>
-      <c r="D77" s="233" t="s">
+      <c r="D97" s="231" t="s">
         <v>508</v>
       </c>
-      <c r="E77" s="233" t="s">
+      <c r="E97" s="231" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="232" t="s">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="273" t="s">
         <v>663</v>
       </c>
-      <c r="C78" s="232" t="s">
+      <c r="C98" s="273" t="s">
         <v>664</v>
       </c>
-      <c r="D78" s="233" t="s">
+      <c r="D98" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="E78" s="233" t="s">
+      <c r="E98" s="231" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="232" t="s">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="273" t="s">
         <v>665</v>
       </c>
-      <c r="C79" s="232" t="s">
+      <c r="C99" s="273" t="s">
         <v>666</v>
       </c>
-      <c r="D79" s="233" t="s">
+      <c r="D99" s="231" t="s">
         <v>523</v>
       </c>
-      <c r="E79" s="233" t="s">
+      <c r="E99" s="231" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="232" t="s">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="273" t="s">
         <v>667</v>
       </c>
-      <c r="C80" s="232" t="s">
+      <c r="C100" s="273" t="s">
         <v>668</v>
       </c>
-      <c r="D80" s="233" t="s">
+      <c r="D100" s="231" t="s">
         <v>658</v>
       </c>
-      <c r="E80" s="233" t="s">
+      <c r="E100" s="231" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="232" t="s">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="273" t="s">
         <v>49</v>
       </c>
-      <c r="C81" s="232" t="s">
+      <c r="C101" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E81" s="233" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="232" t="s">
+      <c r="D101" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E101" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="273" t="s">
         <v>669</v>
       </c>
-      <c r="C82" s="232" t="s">
+      <c r="C102" s="273" t="s">
         <v>670</v>
       </c>
-      <c r="D82" s="233" t="s">
+      <c r="D102" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="E82" s="233" t="s">
+      <c r="E102" s="231" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="232" t="s">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="273" t="s">
         <v>497</v>
       </c>
-      <c r="C83" s="232" t="s">
+      <c r="C103" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D83" s="233" t="s">
+      <c r="D103" s="231" t="s">
         <v>493</v>
       </c>
-      <c r="E83" s="233" t="s">
+      <c r="E103" s="231" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="232" t="s">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B104" s="273" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="232" t="s">
+      <c r="C104" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D84" s="233" t="s">
+      <c r="D104" s="231" t="s">
         <v>493</v>
       </c>
-      <c r="E84" s="233" t="s">
+      <c r="E104" s="231" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="232" t="s">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="273" t="s">
         <v>671</v>
       </c>
-      <c r="C85" s="232" t="s">
+      <c r="C105" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D85" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E85" s="233" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="19" t="s">
+      <c r="D105" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E105" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B108" s="270" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="228" t="s">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="272" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="229" t="s">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B111" s="228" t="s">
         <v>504</v>
       </c>
-      <c r="C91" s="229" t="s">
+      <c r="C111" s="228" t="s">
         <v>505</v>
       </c>
-      <c r="D91" s="230" t="s">
+      <c r="D111" s="229" t="s">
         <v>506</v>
       </c>
-      <c r="E91" s="230" t="s">
+      <c r="E111" s="229" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="232" t="s">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="273" t="s">
         <v>479</v>
       </c>
-      <c r="C92" s="232" t="s">
+      <c r="C112" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D92" s="233" t="s">
+      <c r="D112" s="231" t="s">
         <v>508</v>
       </c>
-      <c r="E92" s="233" t="s">
+      <c r="E112" s="231" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="232" t="s">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B113" s="273" t="s">
         <v>497</v>
       </c>
-      <c r="C93" s="232" t="s">
+      <c r="C113" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D93" s="233" t="s">
+      <c r="D113" s="231" t="s">
         <v>493</v>
       </c>
-      <c r="E93" s="233" t="s">
+      <c r="E113" s="231" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="232" t="s">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B114" s="273" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="232" t="s">
+      <c r="C114" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D94" s="233" t="s">
+      <c r="D114" s="231" t="s">
         <v>493</v>
       </c>
-      <c r="E94" s="233" t="s">
+      <c r="E114" s="231" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="232" t="s">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="273" t="s">
         <v>674</v>
       </c>
-      <c r="C95" s="232" t="s">
+      <c r="C115" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D95" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E95" s="233" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="232" t="s">
+      <c r="D115" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E115" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B116" s="273" t="s">
         <v>675</v>
       </c>
-      <c r="C96" s="232" t="s">
+      <c r="C116" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D96" s="233" t="s">
+      <c r="D116" s="231" t="s">
         <v>508</v>
       </c>
-      <c r="E96" s="233" t="s">
+      <c r="E116" s="231" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="232" t="s">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B117" s="273" t="s">
         <v>676</v>
       </c>
-      <c r="C97" s="232" t="s">
+      <c r="C117" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D97" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E97" s="233" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="232" t="s">
+      <c r="D117" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E117" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B118" s="273" t="s">
         <v>677</v>
       </c>
-      <c r="C98" s="232" t="s">
+      <c r="C118" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D98" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E98" s="233" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="232" t="s">
+      <c r="D118" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E118" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B119" s="273" t="s">
         <v>678</v>
       </c>
-      <c r="C99" s="232" t="s">
+      <c r="C119" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D99" s="233" t="s">
+      <c r="D119" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="E99" s="233" t="s">
+      <c r="E119" s="231" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="232" t="s">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B120" s="273" t="s">
         <v>679</v>
       </c>
-      <c r="C100" s="232" t="s">
+      <c r="C120" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D100" s="233" t="s">
+      <c r="D120" s="231" t="s">
         <v>523</v>
       </c>
-      <c r="E100" s="233" t="s">
+      <c r="E120" s="231" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="232" t="s">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B121" s="273" t="s">
         <v>680</v>
       </c>
-      <c r="C101" s="232" t="s">
+      <c r="C121" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D101" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E101" s="233" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="232" t="s">
+      <c r="D121" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E121" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B122" s="273" t="s">
         <v>681</v>
       </c>
-      <c r="C102" s="232" t="s">
+      <c r="C122" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D102" s="233" t="s">
-        <v>484</v>
-      </c>
-      <c r="E102" s="233" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="232" t="s">
+      <c r="D122" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E122" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B123" s="273" t="s">
         <v>682</v>
       </c>
-      <c r="C103" s="232" t="s">
+      <c r="C123" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D103" s="233" t="s">
+      <c r="D123" s="231" t="s">
         <v>658</v>
       </c>
-      <c r="E103" s="233" t="s">
+      <c r="E123" s="231" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="232" t="s">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B124" s="273" t="s">
         <v>683</v>
       </c>
-      <c r="C104" s="232" t="s">
+      <c r="C124" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D104" s="233" t="s">
+      <c r="D124" s="231" t="s">
         <v>527</v>
       </c>
-      <c r="E104" s="233" t="s">
+      <c r="E124" s="231" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="232" t="s">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B125" s="273" t="s">
         <v>684</v>
       </c>
-      <c r="C105" s="232" t="s">
+      <c r="C125" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D105" s="233" t="s">
+      <c r="D125" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="E105" s="233" t="s">
+      <c r="E125" s="231" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B106" s="232" t="s">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B126" s="273" t="s">
         <v>685</v>
       </c>
-      <c r="C106" s="232" t="s">
+      <c r="C126" s="273" t="s">
         <v>487</v>
       </c>
-      <c r="D106" s="233" t="s">
+      <c r="D126" s="231" t="s">
         <v>508</v>
       </c>
-      <c r="E106" s="233" t="s">
+      <c r="E126" s="231" t="s">
         <v>509</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B128" s="270" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B129" s="272" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B131" s="228" t="s">
+        <v>504</v>
+      </c>
+      <c r="C131" s="228" t="s">
+        <v>505</v>
+      </c>
+      <c r="D131" s="229" t="s">
+        <v>506</v>
+      </c>
+      <c r="E131" s="229" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B132" s="273" t="s">
+        <v>479</v>
+      </c>
+      <c r="C132" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D132" s="231" t="s">
+        <v>508</v>
+      </c>
+      <c r="E132" s="231" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B133" s="273" t="s">
+        <v>516</v>
+      </c>
+      <c r="C133" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D133" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E133" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B134" s="273" t="s">
+        <v>548</v>
+      </c>
+      <c r="C134" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D134" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E134" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B135" s="273" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D135" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E135" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B136" s="273" t="s">
+        <v>513</v>
+      </c>
+      <c r="C136" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D136" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E136" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B137" s="273" t="s">
+        <v>532</v>
+      </c>
+      <c r="C137" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D137" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E137" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B138" s="273" t="s">
+        <v>518</v>
+      </c>
+      <c r="C138" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D138" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E138" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B139" s="273" t="s">
+        <v>549</v>
+      </c>
+      <c r="C139" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D139" s="231" t="s">
+        <v>527</v>
+      </c>
+      <c r="E139" s="231" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B140" s="273" t="s">
+        <v>550</v>
+      </c>
+      <c r="C140" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D140" s="231" t="s">
+        <v>551</v>
+      </c>
+      <c r="E140" s="231" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B141" s="273" t="s">
+        <v>497</v>
+      </c>
+      <c r="C141" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D141" s="231" t="s">
+        <v>493</v>
+      </c>
+      <c r="E141" s="231" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B142" s="273" t="s">
+        <v>53</v>
+      </c>
+      <c r="C142" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D142" s="231" t="s">
+        <v>493</v>
+      </c>
+      <c r="E142" s="231" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B145" s="270" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B146" s="272" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B148" s="228" t="s">
+        <v>504</v>
+      </c>
+      <c r="C148" s="228" t="s">
+        <v>505</v>
+      </c>
+      <c r="D148" s="229" t="s">
+        <v>506</v>
+      </c>
+      <c r="E148" s="229" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B149" s="273" t="s">
+        <v>479</v>
+      </c>
+      <c r="C149" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D149" s="231" t="s">
+        <v>508</v>
+      </c>
+      <c r="E149" s="231" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B150" s="273" t="s">
+        <v>516</v>
+      </c>
+      <c r="C150" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D150" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E150" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B151" s="273" t="s">
+        <v>548</v>
+      </c>
+      <c r="C151" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D151" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E151" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B152" s="273" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D152" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E152" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B153" s="273" t="s">
+        <v>513</v>
+      </c>
+      <c r="C153" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D153" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E153" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B154" s="273" t="s">
+        <v>532</v>
+      </c>
+      <c r="C154" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D154" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E154" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B155" s="273" t="s">
+        <v>518</v>
+      </c>
+      <c r="C155" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D155" s="231" t="s">
+        <v>484</v>
+      </c>
+      <c r="E155" s="231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B156" s="273" t="s">
+        <v>549</v>
+      </c>
+      <c r="C156" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D156" s="231" t="s">
+        <v>527</v>
+      </c>
+      <c r="E156" s="231" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B157" s="273" t="s">
+        <v>550</v>
+      </c>
+      <c r="C157" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D157" s="231" t="s">
+        <v>551</v>
+      </c>
+      <c r="E157" s="231" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B158" s="273" t="s">
+        <v>497</v>
+      </c>
+      <c r="C158" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D158" s="231" t="s">
+        <v>493</v>
+      </c>
+      <c r="E158" s="231" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B159" s="273" t="s">
+        <v>53</v>
+      </c>
+      <c r="C159" s="273" t="s">
+        <v>487</v>
+      </c>
+      <c r="D159" s="231" t="s">
+        <v>493</v>
+      </c>
+      <c r="E159" s="231" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AB27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -6674,10 +7216,10 @@
       <c r="E21" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="264" t="s">
+      <c r="F21" s="261" t="s">
         <v>255</v>
       </c>
-      <c r="G21" s="264"/>
+      <c r="G21" s="261"/>
     </row>
     <row r="22" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
@@ -6718,7 +7260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:V47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -7275,10 +7817,10 @@
       <c r="F41" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="264" t="s">
+      <c r="G41" s="261" t="s">
         <v>255</v>
       </c>
-      <c r="H41" s="264"/>
+      <c r="H41" s="261"/>
     </row>
     <row r="42" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="16" t="s">
@@ -7319,7 +7861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:X23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -7327,27 +7869,27 @@
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="5:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="248" t="s">
+      <c r="E2" s="245" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="248"/>
-      <c r="G2" s="248"/>
-      <c r="H2" s="248"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="248"/>
-      <c r="K2" s="248"/>
-      <c r="L2" s="248"/>
-      <c r="M2" s="248"/>
-      <c r="N2" s="248"/>
-      <c r="O2" s="248"/>
-      <c r="P2" s="248"/>
-      <c r="Q2" s="248"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="248"/>
-      <c r="T2" s="248"/>
-      <c r="U2" s="248"/>
-      <c r="V2" s="248"/>
-      <c r="W2" s="248"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
     </row>
     <row r="3" spans="5:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="92"/>
@@ -7371,27 +7913,27 @@
       <c r="W3" s="94"/>
     </row>
     <row r="4" spans="5:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="265" t="s">
+      <c r="E4" s="262" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="266"/>
-      <c r="G4" s="266"/>
-      <c r="H4" s="266"/>
-      <c r="I4" s="266"/>
-      <c r="J4" s="266"/>
-      <c r="K4" s="266"/>
-      <c r="L4" s="266"/>
-      <c r="M4" s="266"/>
-      <c r="N4" s="266"/>
-      <c r="O4" s="266"/>
-      <c r="P4" s="266"/>
-      <c r="Q4" s="266"/>
-      <c r="R4" s="266"/>
-      <c r="S4" s="266"/>
-      <c r="T4" s="266"/>
-      <c r="U4" s="266"/>
-      <c r="V4" s="266"/>
-      <c r="W4" s="267"/>
+      <c r="F4" s="263"/>
+      <c r="G4" s="263"/>
+      <c r="H4" s="263"/>
+      <c r="I4" s="263"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
+      <c r="U4" s="263"/>
+      <c r="V4" s="263"/>
+      <c r="W4" s="264"/>
     </row>
     <row r="5" spans="5:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="84"/>
@@ -7606,7 +8148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -7867,10 +8409,10 @@
       </c>
       <c r="K23" s="103"/>
       <c r="M23" s="102"/>
-      <c r="P23" s="268" t="s">
+      <c r="P23" s="265" t="s">
         <v>191</v>
       </c>
-      <c r="Q23" s="269"/>
+      <c r="Q23" s="266"/>
       <c r="S23" s="108" t="s">
         <v>23</v>
       </c>
@@ -8021,7 +8563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -8129,9 +8671,9 @@
       <c r="D10" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="270"/>
-      <c r="F10" s="271"/>
-      <c r="G10" s="272"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="268"/>
+      <c r="G10" s="269"/>
       <c r="H10" s="78" t="s">
         <v>7</v>
       </c>
@@ -8229,11 +8771,11 @@
       <c r="D19" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="270"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="272"/>
+      <c r="E19" s="267"/>
+      <c r="F19" s="268"/>
+      <c r="G19" s="268"/>
+      <c r="H19" s="268"/>
+      <c r="I19" s="269"/>
       <c r="J19" s="64"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8376,9 +8918,9 @@
       <c r="D37" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="270"/>
-      <c r="F37" s="271"/>
-      <c r="G37" s="272"/>
+      <c r="E37" s="267"/>
+      <c r="F37" s="268"/>
+      <c r="G37" s="269"/>
       <c r="H37" s="78" t="s">
         <v>7</v>
       </c>
@@ -8476,11 +9018,11 @@
       <c r="D46" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="270"/>
-      <c r="F46" s="271"/>
-      <c r="G46" s="271"/>
-      <c r="H46" s="271"/>
-      <c r="I46" s="272"/>
+      <c r="E46" s="267"/>
+      <c r="F46" s="268"/>
+      <c r="G46" s="268"/>
+      <c r="H46" s="268"/>
+      <c r="I46" s="269"/>
       <c r="J46" s="64"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8585,7 +9127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -8758,13 +9300,13 @@
       <c r="L13" s="213"/>
     </row>
     <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="236" t="s">
+      <c r="B14" s="233" t="s">
         <v>627</v>
       </c>
-      <c r="C14" s="237"/>
-      <c r="D14" s="237"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="238"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="235"/>
       <c r="G14" s="220">
         <v>0</v>
       </c>
@@ -8932,13 +9474,13 @@
       <c r="K28" s="218"/>
     </row>
     <row r="29" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="236" t="s">
+      <c r="B29" s="233" t="s">
         <v>634</v>
       </c>
-      <c r="C29" s="237"/>
-      <c r="D29" s="237"/>
-      <c r="E29" s="237"/>
-      <c r="F29" s="238"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="235"/>
       <c r="G29" s="224">
         <f>SUM(G22:G28)</f>
         <v>10</v>
@@ -9126,13 +9668,13 @@
       <c r="L43" s="213"/>
     </row>
     <row r="44" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="236" t="s">
+      <c r="B44" s="233" t="s">
         <v>634</v>
       </c>
-      <c r="C44" s="237"/>
-      <c r="D44" s="239"/>
-      <c r="E44" s="237"/>
-      <c r="F44" s="238"/>
+      <c r="C44" s="234"/>
+      <c r="D44" s="236"/>
+      <c r="E44" s="234"/>
+      <c r="F44" s="235"/>
       <c r="G44" s="224">
         <f>SUM(G37:G43)</f>
         <v>10</v>
@@ -9160,7 +9702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C76"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -9461,12 +10003,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35:F41"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -10426,14 +10968,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:F2"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N168"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -10502,7 +11044,7 @@
       <c r="A5" s="58">
         <v>1</v>
       </c>
-      <c r="B5" s="240" t="s">
+      <c r="B5" s="237" t="s">
         <v>104</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -10540,7 +11082,7 @@
       <c r="A6" s="58">
         <v>1</v>
       </c>
-      <c r="B6" s="241"/>
+      <c r="B6" s="238"/>
       <c r="C6" s="34" t="s">
         <v>74</v>
       </c>
@@ -10574,7 +11116,7 @@
       <c r="A7" s="58">
         <v>1</v>
       </c>
-      <c r="B7" s="242"/>
+      <c r="B7" s="239"/>
       <c r="C7" s="34" t="s">
         <v>75</v>
       </c>
@@ -10602,7 +11144,7 @@
       <c r="A8" s="58">
         <v>2</v>
       </c>
-      <c r="B8" s="243" t="s">
+      <c r="B8" s="240" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -10642,7 +11184,7 @@
       <c r="A9" s="58">
         <v>2</v>
       </c>
-      <c r="B9" s="241"/>
+      <c r="B9" s="238"/>
       <c r="C9" s="25" t="s">
         <v>4</v>
       </c>
@@ -10680,7 +11222,7 @@
       <c r="A10" s="58">
         <v>2</v>
       </c>
-      <c r="B10" s="241"/>
+      <c r="B10" s="238"/>
       <c r="C10" s="25" t="s">
         <v>5</v>
       </c>
@@ -10718,7 +11260,7 @@
       <c r="A11" s="58">
         <v>2</v>
       </c>
-      <c r="B11" s="241"/>
+      <c r="B11" s="238"/>
       <c r="C11" s="25" t="s">
         <v>6</v>
       </c>
@@ -10756,7 +11298,7 @@
       <c r="A12" s="58">
         <v>2</v>
       </c>
-      <c r="B12" s="241"/>
+      <c r="B12" s="238"/>
       <c r="C12" s="25" t="s">
         <v>7</v>
       </c>
@@ -10788,7 +11330,7 @@
       <c r="A13" s="58">
         <v>2</v>
       </c>
-      <c r="B13" s="241"/>
+      <c r="B13" s="238"/>
       <c r="C13" s="25" t="s">
         <v>8</v>
       </c>
@@ -10824,7 +11366,7 @@
       <c r="A14" s="58">
         <v>2</v>
       </c>
-      <c r="B14" s="241"/>
+      <c r="B14" s="238"/>
       <c r="C14" s="25" t="s">
         <v>9</v>
       </c>
@@ -10860,7 +11402,7 @@
       <c r="A15" s="58">
         <v>2</v>
       </c>
-      <c r="B15" s="241"/>
+      <c r="B15" s="238"/>
       <c r="C15" s="25" t="s">
         <v>10</v>
       </c>
@@ -10892,7 +11434,7 @@
       <c r="A16" s="58">
         <v>2</v>
       </c>
-      <c r="B16" s="244"/>
+      <c r="B16" s="241"/>
       <c r="C16" s="30" t="s">
         <v>11</v>
       </c>
@@ -10924,7 +11466,7 @@
       <c r="A17" s="58">
         <v>3</v>
       </c>
-      <c r="B17" s="240" t="s">
+      <c r="B17" s="237" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -10958,7 +11500,7 @@
       <c r="A18" s="58">
         <v>3</v>
       </c>
-      <c r="B18" s="241"/>
+      <c r="B18" s="238"/>
       <c r="C18" s="25" t="s">
         <v>12</v>
       </c>
@@ -10988,7 +11530,7 @@
       <c r="A19" s="58">
         <v>3</v>
       </c>
-      <c r="B19" s="241"/>
+      <c r="B19" s="238"/>
       <c r="C19" s="25" t="s">
         <v>36</v>
       </c>
@@ -11020,7 +11562,7 @@
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
-      <c r="B20" s="241"/>
+      <c r="B20" s="238"/>
       <c r="C20" s="25" t="s">
         <v>13</v>
       </c>
@@ -11044,7 +11586,7 @@
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
-      <c r="B21" s="241"/>
+      <c r="B21" s="238"/>
       <c r="C21" s="29" t="s">
         <v>56</v>
       </c>
@@ -11072,7 +11614,7 @@
       <c r="A22" s="58">
         <v>3</v>
       </c>
-      <c r="B22" s="241"/>
+      <c r="B22" s="238"/>
       <c r="C22" s="29" t="s">
         <v>59</v>
       </c>
@@ -11102,7 +11644,7 @@
       <c r="A23" s="58">
         <v>3</v>
       </c>
-      <c r="B23" s="244"/>
+      <c r="B23" s="241"/>
       <c r="C23" s="38" t="s">
         <v>61</v>
       </c>
@@ -11130,7 +11672,7 @@
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
-      <c r="B24" s="245" t="s">
+      <c r="B24" s="242" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="40" t="s">
@@ -11152,7 +11694,7 @@
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
-      <c r="B25" s="246"/>
+      <c r="B25" s="243"/>
       <c r="C25" s="29" t="s">
         <v>52</v>
       </c>
@@ -11174,7 +11716,7 @@
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
-      <c r="B26" s="247"/>
+      <c r="B26" s="244"/>
       <c r="C26" s="38" t="s">
         <v>54</v>
       </c>
@@ -12342,7 +12884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -13550,7 +14092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -14010,7 +14552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:AI32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -14018,39 +14560,39 @@
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="5:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="248" t="s">
+      <c r="E4" s="245" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="248"/>
-      <c r="I4" s="248"/>
-      <c r="J4" s="248"/>
-      <c r="K4" s="248"/>
-      <c r="L4" s="248"/>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248"/>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
-      <c r="T4" s="248"/>
-      <c r="U4" s="248"/>
-      <c r="V4" s="248"/>
-      <c r="W4" s="248"/>
-      <c r="X4" s="248"/>
-      <c r="Y4" s="248"/>
-      <c r="Z4" s="248"/>
-      <c r="AA4" s="248"/>
-      <c r="AB4" s="248"/>
-      <c r="AC4" s="248"/>
-      <c r="AD4" s="248"/>
-      <c r="AE4" s="248"/>
-      <c r="AF4" s="248"/>
-      <c r="AG4" s="248"/>
-      <c r="AH4" s="248"/>
-      <c r="AI4" s="248"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="245"/>
+      <c r="H4" s="245"/>
+      <c r="I4" s="245"/>
+      <c r="J4" s="245"/>
+      <c r="K4" s="245"/>
+      <c r="L4" s="245"/>
+      <c r="M4" s="245"/>
+      <c r="N4" s="245"/>
+      <c r="O4" s="245"/>
+      <c r="P4" s="245"/>
+      <c r="Q4" s="245"/>
+      <c r="R4" s="245"/>
+      <c r="S4" s="245"/>
+      <c r="T4" s="245"/>
+      <c r="U4" s="245"/>
+      <c r="V4" s="245"/>
+      <c r="W4" s="245"/>
+      <c r="X4" s="245"/>
+      <c r="Y4" s="245"/>
+      <c r="Z4" s="245"/>
+      <c r="AA4" s="245"/>
+      <c r="AB4" s="245"/>
+      <c r="AC4" s="245"/>
+      <c r="AD4" s="245"/>
+      <c r="AE4" s="245"/>
+      <c r="AF4" s="245"/>
+      <c r="AG4" s="245"/>
+      <c r="AH4" s="245"/>
+      <c r="AI4" s="245"/>
     </row>
     <row r="5" spans="5:35" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="92"/>
@@ -14455,16 +14997,16 @@
     </row>
     <row r="31" spans="5:35" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="84"/>
-      <c r="AB31" s="249" t="s">
+      <c r="AB31" s="246" t="s">
         <v>24</v>
       </c>
-      <c r="AC31" s="249"/>
-      <c r="AD31" s="249"/>
-      <c r="AF31" s="250" t="s">
+      <c r="AC31" s="246"/>
+      <c r="AD31" s="246"/>
+      <c r="AF31" s="247" t="s">
         <v>175</v>
       </c>
-      <c r="AG31" s="251"/>
-      <c r="AH31" s="251"/>
+      <c r="AG31" s="248"/>
+      <c r="AH31" s="248"/>
       <c r="AI31" s="85"/>
     </row>
     <row r="32" spans="5:35" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -14512,7 +15054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AE233"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -14569,11 +15111,11 @@
       <c r="G7" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H7" s="255" t="s">
+      <c r="H7" s="252" t="s">
         <v>417</v>
       </c>
-      <c r="I7" s="256"/>
-      <c r="J7" s="257"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="254"/>
     </row>
     <row r="9" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="125" t="s">
@@ -14660,11 +15202,11 @@
       <c r="G28" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H28" s="255" t="s">
+      <c r="H28" s="252" t="s">
         <v>417</v>
       </c>
-      <c r="I28" s="256"/>
-      <c r="J28" s="257"/>
+      <c r="I28" s="253"/>
+      <c r="J28" s="254"/>
     </row>
     <row r="30" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="125" t="s">
@@ -14712,15 +15254,15 @@
       </c>
     </row>
     <row r="38" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="259" t="s">
+      <c r="D38" s="256" t="s">
         <v>359</v>
       </c>
-      <c r="E38" s="259"/>
-      <c r="F38" s="259"/>
-      <c r="G38" s="259"/>
-      <c r="H38" s="259"/>
-      <c r="I38" s="259"/>
-      <c r="J38" s="259"/>
+      <c r="E38" s="256"/>
+      <c r="F38" s="256"/>
+      <c r="G38" s="256"/>
+      <c r="H38" s="256"/>
+      <c r="I38" s="256"/>
+      <c r="J38" s="256"/>
     </row>
     <row r="43" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="6" t="s">
@@ -14763,11 +15305,11 @@
       <c r="G49" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H49" s="255" t="s">
+      <c r="H49" s="252" t="s">
         <v>417</v>
       </c>
-      <c r="I49" s="256"/>
-      <c r="J49" s="257"/>
+      <c r="I49" s="253"/>
+      <c r="J49" s="254"/>
     </row>
     <row r="51" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" s="164" t="s">
@@ -14888,11 +15430,11 @@
       <c r="G70" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H70" s="255" t="s">
+      <c r="H70" s="252" t="s">
         <v>417</v>
       </c>
-      <c r="I70" s="256"/>
-      <c r="J70" s="257"/>
+      <c r="I70" s="253"/>
+      <c r="J70" s="254"/>
     </row>
     <row r="72" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="143" t="s">
@@ -14900,20 +15442,20 @@
       </c>
       <c r="E72" s="145"/>
       <c r="F72" s="146"/>
-      <c r="G72" s="260" t="s">
+      <c r="G72" s="257" t="s">
         <v>352</v>
       </c>
       <c r="H72" s="146"/>
-      <c r="I72" s="262" t="s">
+      <c r="I72" s="259" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="73" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E73" s="147"/>
       <c r="F73" s="148"/>
-      <c r="G73" s="261"/>
+      <c r="G73" s="258"/>
       <c r="H73" s="148"/>
-      <c r="I73" s="263"/>
+      <c r="I73" s="260"/>
     </row>
     <row r="74" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74" s="138" t="s">
@@ -15043,11 +15585,11 @@
       <c r="G91" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H91" s="255" t="s">
+      <c r="H91" s="252" t="s">
         <v>417</v>
       </c>
-      <c r="I91" s="256"/>
-      <c r="J91" s="257"/>
+      <c r="I91" s="253"/>
+      <c r="J91" s="254"/>
     </row>
     <row r="93" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D93" s="125" t="s">
@@ -15175,11 +15717,11 @@
       <c r="G112" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H112" s="255" t="s">
+      <c r="H112" s="252" t="s">
         <v>417</v>
       </c>
-      <c r="I112" s="256"/>
-      <c r="J112" s="257"/>
+      <c r="I112" s="253"/>
+      <c r="J112" s="254"/>
     </row>
     <row r="114" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D114" s="125" t="s">
@@ -15284,10 +15826,10 @@
       </c>
     </row>
     <row r="129" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G129" s="258" t="s">
+      <c r="G129" s="255" t="s">
         <v>394</v>
       </c>
-      <c r="H129" s="258"/>
+      <c r="H129" s="255"/>
     </row>
     <row r="130" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G130" s="142"/>
@@ -15319,11 +15861,11 @@
       <c r="G134" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H134" s="255" t="s">
+      <c r="H134" s="252" t="s">
         <v>417</v>
       </c>
-      <c r="I134" s="256"/>
-      <c r="J134" s="257"/>
+      <c r="I134" s="253"/>
+      <c r="J134" s="254"/>
     </row>
     <row r="136" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D136" s="125" t="s">
@@ -15449,11 +15991,11 @@
       <c r="G155" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H155" s="255" t="s">
+      <c r="H155" s="252" t="s">
         <v>417</v>
       </c>
-      <c r="I155" s="256"/>
-      <c r="J155" s="257"/>
+      <c r="I155" s="253"/>
+      <c r="J155" s="254"/>
     </row>
     <row r="157" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D157" s="125" t="s">
@@ -15577,11 +16119,11 @@
       <c r="G176" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H176" s="255" t="s">
+      <c r="H176" s="252" t="s">
         <v>417</v>
       </c>
-      <c r="I176" s="256"/>
-      <c r="J176" s="257"/>
+      <c r="I176" s="253"/>
+      <c r="J176" s="254"/>
     </row>
     <row r="178" spans="3:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D178" s="125" t="s">
@@ -15854,11 +16396,11 @@
       <c r="G197" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H197" s="255" t="s">
+      <c r="H197" s="252" t="s">
         <v>417</v>
       </c>
-      <c r="I197" s="256"/>
-      <c r="J197" s="257"/>
+      <c r="I197" s="253"/>
+      <c r="J197" s="254"/>
     </row>
     <row r="199" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D199" s="125" t="s">
@@ -16027,10 +16569,10 @@
       <c r="S226" s="176" t="s">
         <v>345</v>
       </c>
-      <c r="T226" s="252" t="s">
+      <c r="T226" s="249" t="s">
         <v>417</v>
       </c>
-      <c r="U226" s="253"/>
+      <c r="U226" s="250"/>
       <c r="V226" s="182"/>
       <c r="W226" s="176" t="s">
         <v>347</v>
@@ -16064,9 +16606,9 @@
       <c r="P228" s="178" t="s">
         <v>352</v>
       </c>
-      <c r="Q228" s="252"/>
-      <c r="R228" s="254"/>
-      <c r="S228" s="253"/>
+      <c r="Q228" s="249"/>
+      <c r="R228" s="251"/>
+      <c r="S228" s="250"/>
       <c r="U228" s="182"/>
       <c r="V228" s="182"/>
       <c r="W228" s="182"/>

--- a/planing/planing.xlsx
+++ b/planing/planing.xlsx
@@ -5000,9 +5000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/planing/planing.xlsx
+++ b/planing/planing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_D\edi_sh_new\planing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CE8EB7-36CD-483E-B8BF-AEB731974B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="36" r:id="rId1"/>
@@ -30,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">View.vue!$A$2:$F$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2640,7 +2641,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
@@ -3835,7 +3836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4535,6 +4536,15 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="50" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4645,28 +4655,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
-    <cellStyle name="표준 3" xfId="2"/>
-    <cellStyle name="표준 4" xfId="3"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4997,28 +4992,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F159"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="271"/>
-    <col min="2" max="2" width="25.375" style="271" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.625" style="271" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="25.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="271"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="270" t="s">
+      <c r="B2" s="19" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="272" t="s">
+      <c r="B3" s="233" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5038,10 +5033,10 @@
       <c r="F5" s="230"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="273" t="s">
+      <c r="B6" s="234" t="s">
         <v>479</v>
       </c>
-      <c r="C6" s="273" t="s">
+      <c r="C6" s="234" t="s">
         <v>480</v>
       </c>
       <c r="D6" s="231" t="s">
@@ -5053,10 +5048,10 @@
       <c r="F6" s="232"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="273" t="s">
+      <c r="B7" s="234" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="273" t="s">
+      <c r="C7" s="234" t="s">
         <v>483</v>
       </c>
       <c r="D7" s="231" t="s">
@@ -5068,10 +5063,10 @@
       <c r="F7" s="232"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="273" t="s">
+      <c r="B8" s="234" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="273" t="s">
+      <c r="C8" s="234" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="231" t="s">
@@ -5083,10 +5078,10 @@
       <c r="F8" s="232"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="273" t="s">
+      <c r="B9" s="234" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="273" t="s">
+      <c r="C9" s="234" t="s">
         <v>485</v>
       </c>
       <c r="D9" s="231" t="s">
@@ -5098,10 +5093,10 @@
       <c r="F9" s="232"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="273" t="s">
+      <c r="B10" s="234" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="273" t="s">
+      <c r="C10" s="234" t="s">
         <v>486</v>
       </c>
       <c r="D10" s="231" t="s">
@@ -5113,10 +5108,10 @@
       <c r="F10" s="232"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="273" t="s">
+      <c r="B11" s="234" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="273" t="s">
+      <c r="C11" s="234" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="231" t="s">
@@ -5128,10 +5123,10 @@
       <c r="F11" s="232"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="273" t="s">
+      <c r="B12" s="234" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="274" t="s">
+      <c r="C12" s="235" t="s">
         <v>487</v>
       </c>
       <c r="D12" s="231" t="s">
@@ -5143,10 +5138,10 @@
       <c r="F12" s="232"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="273" t="s">
+      <c r="B13" s="234" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="273" t="s">
+      <c r="C13" s="234" t="s">
         <v>488</v>
       </c>
       <c r="D13" s="231" t="s">
@@ -5158,10 +5153,10 @@
       <c r="F13" s="232"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="273" t="s">
+      <c r="B14" s="234" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="273" t="s">
+      <c r="C14" s="234" t="s">
         <v>489</v>
       </c>
       <c r="D14" s="231" t="s">
@@ -5173,10 +5168,10 @@
       <c r="F14" s="232"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="273" t="s">
+      <c r="B15" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="274" t="s">
+      <c r="C15" s="235" t="s">
         <v>487</v>
       </c>
       <c r="D15" s="231" t="s">
@@ -5188,10 +5183,10 @@
       <c r="F15" s="232"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="273" t="s">
+      <c r="B16" s="234" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="273" t="s">
+      <c r="C16" s="234" t="s">
         <v>490</v>
       </c>
       <c r="D16" s="231" t="s">
@@ -5203,10 +5198,10 @@
       <c r="F16" s="232"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="273" t="s">
+      <c r="B17" s="234" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="273" t="s">
+      <c r="C17" s="234" t="s">
         <v>491</v>
       </c>
       <c r="D17" s="231" t="s">
@@ -5218,10 +5213,10 @@
       <c r="F17" s="232"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="273" t="s">
+      <c r="B18" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="274" t="s">
+      <c r="C18" s="235" t="s">
         <v>487</v>
       </c>
       <c r="D18" s="231" t="s">
@@ -5233,10 +5228,10 @@
       <c r="F18" s="232"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="273" t="s">
+      <c r="B19" s="234" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="273" t="s">
+      <c r="C19" s="234" t="s">
         <v>495</v>
       </c>
       <c r="D19" s="231" t="s">
@@ -5248,10 +5243,10 @@
       <c r="F19" s="232"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="273" t="s">
+      <c r="B20" s="234" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="273" t="s">
+      <c r="C20" s="234" t="s">
         <v>496</v>
       </c>
       <c r="D20" s="231" t="s">
@@ -5263,10 +5258,10 @@
       <c r="F20" s="232"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="273" t="s">
+      <c r="B21" s="234" t="s">
         <v>497</v>
       </c>
-      <c r="C21" s="273" t="s">
+      <c r="C21" s="234" t="s">
         <v>641</v>
       </c>
       <c r="D21" s="231" t="s">
@@ -5278,10 +5273,10 @@
       <c r="F21" s="232"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="273" t="s">
+      <c r="B22" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="273" t="s">
+      <c r="C22" s="234" t="s">
         <v>642</v>
       </c>
       <c r="D22" s="231" t="s">
@@ -5293,10 +5288,10 @@
       <c r="F22" s="232"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="273" t="s">
+      <c r="B23" s="234" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="273" t="s">
+      <c r="C23" s="234" t="s">
         <v>500</v>
       </c>
       <c r="D23" s="231" t="s">
@@ -5308,10 +5303,10 @@
       <c r="F23" s="232"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="273" t="s">
+      <c r="B24" s="234" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="273" t="s">
+      <c r="C24" s="234" t="s">
         <v>501</v>
       </c>
       <c r="D24" s="231" t="s">
@@ -5323,10 +5318,10 @@
       <c r="F24" s="232"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="273" t="s">
+      <c r="B25" s="234" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="273" t="s">
+      <c r="C25" s="234" t="s">
         <v>502</v>
       </c>
       <c r="D25" s="231" t="s">
@@ -5338,10 +5333,10 @@
       <c r="F25" s="232"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="273" t="s">
+      <c r="B26" s="234" t="s">
         <v>503</v>
       </c>
-      <c r="C26" s="273" t="s">
+      <c r="C26" s="234" t="s">
         <v>643</v>
       </c>
       <c r="D26" s="231" t="s">
@@ -5353,10 +5348,10 @@
       <c r="F26" s="232"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="273" t="s">
+      <c r="B27" s="234" t="s">
         <v>644</v>
       </c>
-      <c r="C27" s="273" t="s">
+      <c r="C27" s="234" t="s">
         <v>645</v>
       </c>
       <c r="D27" s="231" t="s">
@@ -5368,10 +5363,10 @@
       <c r="F27" s="232"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="273" t="s">
+      <c r="B28" s="234" t="s">
         <v>646</v>
       </c>
-      <c r="C28" s="273" t="s">
+      <c r="C28" s="234" t="s">
         <v>647</v>
       </c>
       <c r="D28" s="231" t="s">
@@ -5383,10 +5378,10 @@
       <c r="F28" s="232"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="273" t="s">
+      <c r="B29" s="234" t="s">
         <v>648</v>
       </c>
-      <c r="C29" s="273" t="s">
+      <c r="C29" s="234" t="s">
         <v>649</v>
       </c>
       <c r="D29" s="231" t="s">
@@ -5397,12 +5392,12 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="270" t="s">
+      <c r="B32" s="19" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="272" t="s">
+      <c r="B33" s="233" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5421,10 +5416,10 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="273" t="s">
+      <c r="B36" s="234" t="s">
         <v>479</v>
       </c>
-      <c r="C36" s="273" t="s">
+      <c r="C36" s="234" t="s">
         <v>517</v>
       </c>
       <c r="D36" s="231" t="s">
@@ -5435,10 +5430,10 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="273" t="s">
+      <c r="B37" s="234" t="s">
         <v>518</v>
       </c>
-      <c r="C37" s="273" t="s">
+      <c r="C37" s="234" t="s">
         <v>467</v>
       </c>
       <c r="D37" s="231" t="s">
@@ -5449,10 +5444,10 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="273" t="s">
+      <c r="B38" s="234" t="s">
         <v>519</v>
       </c>
-      <c r="C38" s="273" t="s">
+      <c r="C38" s="234" t="s">
         <v>520</v>
       </c>
       <c r="D38" s="231" t="s">
@@ -5463,10 +5458,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="273" t="s">
+      <c r="B39" s="234" t="s">
         <v>521</v>
       </c>
-      <c r="C39" s="273" t="s">
+      <c r="C39" s="234" t="s">
         <v>522</v>
       </c>
       <c r="D39" s="231" t="s">
@@ -5477,10 +5472,10 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="273" t="s">
+      <c r="B40" s="234" t="s">
         <v>525</v>
       </c>
-      <c r="C40" s="273" t="s">
+      <c r="C40" s="234" t="s">
         <v>526</v>
       </c>
       <c r="D40" s="231" t="s">
@@ -5491,10 +5486,10 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="273" t="s">
+      <c r="B41" s="234" t="s">
         <v>528</v>
       </c>
-      <c r="C41" s="273" t="s">
+      <c r="C41" s="234" t="s">
         <v>529</v>
       </c>
       <c r="D41" s="231" t="s">
@@ -5505,10 +5500,10 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="273" t="s">
+      <c r="B42" s="234" t="s">
         <v>530</v>
       </c>
-      <c r="C42" s="273" t="s">
+      <c r="C42" s="234" t="s">
         <v>531</v>
       </c>
       <c r="D42" s="231" t="s">
@@ -5519,10 +5514,10 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="273" t="s">
+      <c r="B43" s="234" t="s">
         <v>532</v>
       </c>
-      <c r="C43" s="273" t="s">
+      <c r="C43" s="234" t="s">
         <v>533</v>
       </c>
       <c r="D43" s="231" t="s">
@@ -5533,10 +5528,10 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="273" t="s">
+      <c r="B44" s="234" t="s">
         <v>534</v>
       </c>
-      <c r="C44" s="273" t="s">
+      <c r="C44" s="234" t="s">
         <v>535</v>
       </c>
       <c r="D44" s="231" t="s">
@@ -5547,10 +5542,10 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="273" t="s">
+      <c r="B45" s="234" t="s">
         <v>536</v>
       </c>
-      <c r="C45" s="273" t="s">
+      <c r="C45" s="234" t="s">
         <v>537</v>
       </c>
       <c r="D45" s="231" t="s">
@@ -5561,10 +5556,10 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="273" t="s">
+      <c r="B46" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="273" t="s">
+      <c r="C46" s="234" t="s">
         <v>538</v>
       </c>
       <c r="D46" s="231" t="s">
@@ -5575,10 +5570,10 @@
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="273" t="s">
+      <c r="B47" s="234" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="273" t="s">
+      <c r="C47" s="234" t="s">
         <v>539</v>
       </c>
       <c r="D47" s="231" t="s">
@@ -5589,10 +5584,10 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="273" t="s">
+      <c r="B48" s="234" t="s">
         <v>497</v>
       </c>
-      <c r="C48" s="273" t="s">
+      <c r="C48" s="234" t="s">
         <v>498</v>
       </c>
       <c r="D48" s="231" t="s">
@@ -5603,10 +5598,10 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="273" t="s">
+      <c r="B49" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="273" t="s">
+      <c r="C49" s="234" t="s">
         <v>499</v>
       </c>
       <c r="D49" s="231" t="s">
@@ -5617,10 +5612,10 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="273" t="s">
+      <c r="B50" s="234" t="s">
         <v>540</v>
       </c>
-      <c r="C50" s="273" t="s">
+      <c r="C50" s="234" t="s">
         <v>541</v>
       </c>
       <c r="D50" s="231" t="s">
@@ -5631,12 +5626,12 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="270" t="s">
+      <c r="B53" s="19" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="272" t="s">
+      <c r="B54" s="233" t="s">
         <v>514</v>
       </c>
     </row>
@@ -5655,10 +5650,10 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="273" t="s">
+      <c r="B57" s="234" t="s">
         <v>479</v>
       </c>
-      <c r="C57" s="274" t="s">
+      <c r="C57" s="235" t="s">
         <v>487</v>
       </c>
       <c r="D57" s="231" t="s">
@@ -5669,10 +5664,10 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="273" t="s">
+      <c r="B58" s="234" t="s">
         <v>510</v>
       </c>
-      <c r="C58" s="274" t="s">
+      <c r="C58" s="235" t="s">
         <v>487</v>
       </c>
       <c r="D58" s="231" t="s">
@@ -5683,10 +5678,10 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="273" t="s">
+      <c r="B59" s="234" t="s">
         <v>511</v>
       </c>
-      <c r="C59" s="274" t="s">
+      <c r="C59" s="235" t="s">
         <v>487</v>
       </c>
       <c r="D59" s="231" t="s">
@@ -5697,10 +5692,10 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="273" t="s">
+      <c r="B60" s="234" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="274" t="s">
+      <c r="C60" s="235" t="s">
         <v>487</v>
       </c>
       <c r="D60" s="231" t="s">
@@ -5711,10 +5706,10 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="273" t="s">
+      <c r="B61" s="234" t="s">
         <v>512</v>
       </c>
-      <c r="C61" s="274" t="s">
+      <c r="C61" s="235" t="s">
         <v>487</v>
       </c>
       <c r="D61" s="231" t="s">
@@ -5725,10 +5720,10 @@
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="273" t="s">
+      <c r="B62" s="234" t="s">
         <v>513</v>
       </c>
-      <c r="C62" s="274" t="s">
+      <c r="C62" s="235" t="s">
         <v>487</v>
       </c>
       <c r="D62" s="231" t="s">
@@ -5739,10 +5734,10 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="273" t="s">
+      <c r="B63" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="274" t="s">
+      <c r="C63" s="235" t="s">
         <v>487</v>
       </c>
       <c r="D63" s="231" t="s">
@@ -5753,10 +5748,10 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="273" t="s">
+      <c r="B64" s="234" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="274" t="s">
+      <c r="C64" s="235" t="s">
         <v>487</v>
       </c>
       <c r="D64" s="231" t="s">
@@ -5767,10 +5762,10 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="273" t="s">
+      <c r="B65" s="234" t="s">
         <v>497</v>
       </c>
-      <c r="C65" s="274" t="s">
+      <c r="C65" s="235" t="s">
         <v>487</v>
       </c>
       <c r="D65" s="231" t="s">
@@ -5781,10 +5776,10 @@
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="273" t="s">
+      <c r="B66" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="274" t="s">
+      <c r="C66" s="235" t="s">
         <v>487</v>
       </c>
       <c r="D66" s="231" t="s">
@@ -5795,13 +5790,13 @@
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="270" t="s">
+      <c r="B69" s="19" t="s">
         <v>707</v>
       </c>
-      <c r="F69" s="270"/>
+      <c r="F69" s="19"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="272" t="s">
+      <c r="B70" s="233" t="s">
         <v>706</v>
       </c>
     </row>
@@ -5820,10 +5815,10 @@
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="273" t="s">
+      <c r="B73" s="234" t="s">
         <v>479</v>
       </c>
-      <c r="C73" s="273" t="s">
+      <c r="C73" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D73" s="231" t="s">
@@ -5834,10 +5829,10 @@
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="273" t="s">
+      <c r="B74" s="234" t="s">
         <v>545</v>
       </c>
-      <c r="C74" s="273" t="s">
+      <c r="C74" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D74" s="231" t="s">
@@ -5848,10 +5843,10 @@
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="273" t="s">
+      <c r="B75" s="234" t="s">
         <v>546</v>
       </c>
-      <c r="C75" s="273" t="s">
+      <c r="C75" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D75" s="231" t="s">
@@ -5862,10 +5857,10 @@
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="273" t="s">
+      <c r="B76" s="234" t="s">
         <v>497</v>
       </c>
-      <c r="C76" s="273" t="s">
+      <c r="C76" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D76" s="231" t="s">
@@ -5876,12 +5871,12 @@
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="270" t="s">
+      <c r="B79" s="19" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="272" t="s">
+      <c r="B80" s="233" t="s">
         <v>709</v>
       </c>
     </row>
@@ -5900,10 +5895,10 @@
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="273" t="s">
+      <c r="B83" s="234" t="s">
         <v>479</v>
       </c>
-      <c r="C83" s="273" t="s">
+      <c r="C83" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D83" s="231" t="s">
@@ -5914,10 +5909,10 @@
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="273" t="s">
+      <c r="B84" s="234" t="s">
         <v>545</v>
       </c>
-      <c r="C84" s="273" t="s">
+      <c r="C84" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D84" s="231" t="s">
@@ -5928,10 +5923,10 @@
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="273" t="s">
+      <c r="B85" s="234" t="s">
         <v>547</v>
       </c>
-      <c r="C85" s="273" t="s">
+      <c r="C85" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D85" s="231" t="s">
@@ -5942,10 +5937,10 @@
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="273" t="s">
+      <c r="B86" s="234" t="s">
         <v>497</v>
       </c>
-      <c r="C86" s="273" t="s">
+      <c r="C86" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D86" s="231" t="s">
@@ -5956,12 +5951,12 @@
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="270" t="s">
+      <c r="B89" s="19" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="272" t="s">
+      <c r="B90" s="233" t="s">
         <v>654</v>
       </c>
     </row>
@@ -5980,10 +5975,10 @@
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="273" t="s">
+      <c r="B93" s="234" t="s">
         <v>479</v>
       </c>
-      <c r="C93" s="273" t="s">
+      <c r="C93" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D93" s="231" t="s">
@@ -5994,10 +5989,10 @@
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="273" t="s">
+      <c r="B94" s="234" t="s">
         <v>546</v>
       </c>
-      <c r="C94" s="273" t="s">
+      <c r="C94" s="234" t="s">
         <v>655</v>
       </c>
       <c r="D94" s="231" t="s">
@@ -6008,10 +6003,10 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="273" t="s">
+      <c r="B95" s="234" t="s">
         <v>656</v>
       </c>
-      <c r="C95" s="273" t="s">
+      <c r="C95" s="234" t="s">
         <v>657</v>
       </c>
       <c r="D95" s="231" t="s">
@@ -6022,10 +6017,10 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="273" t="s">
+      <c r="B96" s="234" t="s">
         <v>660</v>
       </c>
-      <c r="C96" s="273" t="s">
+      <c r="C96" s="234" t="s">
         <v>661</v>
       </c>
       <c r="D96" s="231" t="s">
@@ -6036,10 +6031,10 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="273" t="s">
+      <c r="B97" s="234" t="s">
         <v>545</v>
       </c>
-      <c r="C97" s="273" t="s">
+      <c r="C97" s="234" t="s">
         <v>662</v>
       </c>
       <c r="D97" s="231" t="s">
@@ -6050,10 +6045,10 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="273" t="s">
+      <c r="B98" s="234" t="s">
         <v>663</v>
       </c>
-      <c r="C98" s="273" t="s">
+      <c r="C98" s="234" t="s">
         <v>664</v>
       </c>
       <c r="D98" s="231" t="s">
@@ -6064,10 +6059,10 @@
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="273" t="s">
+      <c r="B99" s="234" t="s">
         <v>665</v>
       </c>
-      <c r="C99" s="273" t="s">
+      <c r="C99" s="234" t="s">
         <v>666</v>
       </c>
       <c r="D99" s="231" t="s">
@@ -6078,10 +6073,10 @@
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="273" t="s">
+      <c r="B100" s="234" t="s">
         <v>667</v>
       </c>
-      <c r="C100" s="273" t="s">
+      <c r="C100" s="234" t="s">
         <v>668</v>
       </c>
       <c r="D100" s="231" t="s">
@@ -6092,10 +6087,10 @@
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="273" t="s">
+      <c r="B101" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="C101" s="273" t="s">
+      <c r="C101" s="234" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="231" t="s">
@@ -6106,10 +6101,10 @@
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="273" t="s">
+      <c r="B102" s="234" t="s">
         <v>669</v>
       </c>
-      <c r="C102" s="273" t="s">
+      <c r="C102" s="234" t="s">
         <v>670</v>
       </c>
       <c r="D102" s="231" t="s">
@@ -6120,10 +6115,10 @@
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="273" t="s">
+      <c r="B103" s="234" t="s">
         <v>497</v>
       </c>
-      <c r="C103" s="273" t="s">
+      <c r="C103" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D103" s="231" t="s">
@@ -6134,10 +6129,10 @@
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="273" t="s">
+      <c r="B104" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="C104" s="273" t="s">
+      <c r="C104" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D104" s="231" t="s">
@@ -6148,10 +6143,10 @@
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="273" t="s">
+      <c r="B105" s="234" t="s">
         <v>671</v>
       </c>
-      <c r="C105" s="273" t="s">
+      <c r="C105" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D105" s="231" t="s">
@@ -6162,12 +6157,12 @@
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="270" t="s">
+      <c r="B108" s="19" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="272" t="s">
+      <c r="B109" s="233" t="s">
         <v>673</v>
       </c>
     </row>
@@ -6186,10 +6181,10 @@
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="273" t="s">
+      <c r="B112" s="234" t="s">
         <v>479</v>
       </c>
-      <c r="C112" s="273" t="s">
+      <c r="C112" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D112" s="231" t="s">
@@ -6200,10 +6195,10 @@
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113" s="273" t="s">
+      <c r="B113" s="234" t="s">
         <v>497</v>
       </c>
-      <c r="C113" s="273" t="s">
+      <c r="C113" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D113" s="231" t="s">
@@ -6214,10 +6209,10 @@
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" s="273" t="s">
+      <c r="B114" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="C114" s="273" t="s">
+      <c r="C114" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D114" s="231" t="s">
@@ -6228,10 +6223,10 @@
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="273" t="s">
+      <c r="B115" s="234" t="s">
         <v>674</v>
       </c>
-      <c r="C115" s="273" t="s">
+      <c r="C115" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D115" s="231" t="s">
@@ -6242,10 +6237,10 @@
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B116" s="273" t="s">
+      <c r="B116" s="234" t="s">
         <v>675</v>
       </c>
-      <c r="C116" s="273" t="s">
+      <c r="C116" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D116" s="231" t="s">
@@ -6256,10 +6251,10 @@
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" s="273" t="s">
+      <c r="B117" s="234" t="s">
         <v>676</v>
       </c>
-      <c r="C117" s="273" t="s">
+      <c r="C117" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D117" s="231" t="s">
@@ -6270,10 +6265,10 @@
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118" s="273" t="s">
+      <c r="B118" s="234" t="s">
         <v>677</v>
       </c>
-      <c r="C118" s="273" t="s">
+      <c r="C118" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D118" s="231" t="s">
@@ -6284,10 +6279,10 @@
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="273" t="s">
+      <c r="B119" s="234" t="s">
         <v>678</v>
       </c>
-      <c r="C119" s="273" t="s">
+      <c r="C119" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D119" s="231" t="s">
@@ -6298,10 +6293,10 @@
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="273" t="s">
+      <c r="B120" s="234" t="s">
         <v>679</v>
       </c>
-      <c r="C120" s="273" t="s">
+      <c r="C120" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D120" s="231" t="s">
@@ -6312,10 +6307,10 @@
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B121" s="273" t="s">
+      <c r="B121" s="234" t="s">
         <v>680</v>
       </c>
-      <c r="C121" s="273" t="s">
+      <c r="C121" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D121" s="231" t="s">
@@ -6326,10 +6321,10 @@
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B122" s="273" t="s">
+      <c r="B122" s="234" t="s">
         <v>681</v>
       </c>
-      <c r="C122" s="273" t="s">
+      <c r="C122" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D122" s="231" t="s">
@@ -6340,10 +6335,10 @@
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B123" s="273" t="s">
+      <c r="B123" s="234" t="s">
         <v>682</v>
       </c>
-      <c r="C123" s="273" t="s">
+      <c r="C123" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D123" s="231" t="s">
@@ -6354,10 +6349,10 @@
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B124" s="273" t="s">
+      <c r="B124" s="234" t="s">
         <v>683</v>
       </c>
-      <c r="C124" s="273" t="s">
+      <c r="C124" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D124" s="231" t="s">
@@ -6368,10 +6363,10 @@
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B125" s="273" t="s">
+      <c r="B125" s="234" t="s">
         <v>684</v>
       </c>
-      <c r="C125" s="273" t="s">
+      <c r="C125" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D125" s="231" t="s">
@@ -6382,10 +6377,10 @@
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B126" s="273" t="s">
+      <c r="B126" s="234" t="s">
         <v>685</v>
       </c>
-      <c r="C126" s="273" t="s">
+      <c r="C126" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D126" s="231" t="s">
@@ -6396,12 +6391,12 @@
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B128" s="270" t="s">
+      <c r="B128" s="19" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B129" s="272" t="s">
+      <c r="B129" s="233" t="s">
         <v>703</v>
       </c>
     </row>
@@ -6420,10 +6415,10 @@
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B132" s="273" t="s">
+      <c r="B132" s="234" t="s">
         <v>479</v>
       </c>
-      <c r="C132" s="273" t="s">
+      <c r="C132" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D132" s="231" t="s">
@@ -6434,10 +6429,10 @@
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B133" s="273" t="s">
+      <c r="B133" s="234" t="s">
         <v>516</v>
       </c>
-      <c r="C133" s="273" t="s">
+      <c r="C133" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D133" s="231" t="s">
@@ -6448,10 +6443,10 @@
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B134" s="273" t="s">
+      <c r="B134" s="234" t="s">
         <v>548</v>
       </c>
-      <c r="C134" s="273" t="s">
+      <c r="C134" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D134" s="231" t="s">
@@ -6462,10 +6457,10 @@
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B135" s="273" t="s">
+      <c r="B135" s="234" t="s">
         <v>41</v>
       </c>
-      <c r="C135" s="273" t="s">
+      <c r="C135" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D135" s="231" t="s">
@@ -6476,10 +6471,10 @@
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B136" s="273" t="s">
+      <c r="B136" s="234" t="s">
         <v>513</v>
       </c>
-      <c r="C136" s="273" t="s">
+      <c r="C136" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D136" s="231" t="s">
@@ -6490,10 +6485,10 @@
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B137" s="273" t="s">
+      <c r="B137" s="234" t="s">
         <v>532</v>
       </c>
-      <c r="C137" s="273" t="s">
+      <c r="C137" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D137" s="231" t="s">
@@ -6504,10 +6499,10 @@
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B138" s="273" t="s">
+      <c r="B138" s="234" t="s">
         <v>518</v>
       </c>
-      <c r="C138" s="273" t="s">
+      <c r="C138" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D138" s="231" t="s">
@@ -6518,10 +6513,10 @@
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B139" s="273" t="s">
+      <c r="B139" s="234" t="s">
         <v>549</v>
       </c>
-      <c r="C139" s="273" t="s">
+      <c r="C139" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D139" s="231" t="s">
@@ -6532,10 +6527,10 @@
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B140" s="273" t="s">
+      <c r="B140" s="234" t="s">
         <v>550</v>
       </c>
-      <c r="C140" s="273" t="s">
+      <c r="C140" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D140" s="231" t="s">
@@ -6546,10 +6541,10 @@
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B141" s="273" t="s">
+      <c r="B141" s="234" t="s">
         <v>497</v>
       </c>
-      <c r="C141" s="273" t="s">
+      <c r="C141" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D141" s="231" t="s">
@@ -6560,10 +6555,10 @@
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B142" s="273" t="s">
+      <c r="B142" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="C142" s="273" t="s">
+      <c r="C142" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D142" s="231" t="s">
@@ -6574,12 +6569,12 @@
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B145" s="270" t="s">
+      <c r="B145" s="19" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B146" s="272" t="s">
+      <c r="B146" s="233" t="s">
         <v>705</v>
       </c>
     </row>
@@ -6598,10 +6593,10 @@
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B149" s="273" t="s">
+      <c r="B149" s="234" t="s">
         <v>479</v>
       </c>
-      <c r="C149" s="273" t="s">
+      <c r="C149" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D149" s="231" t="s">
@@ -6612,10 +6607,10 @@
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B150" s="273" t="s">
+      <c r="B150" s="234" t="s">
         <v>516</v>
       </c>
-      <c r="C150" s="273" t="s">
+      <c r="C150" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D150" s="231" t="s">
@@ -6626,10 +6621,10 @@
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B151" s="273" t="s">
+      <c r="B151" s="234" t="s">
         <v>548</v>
       </c>
-      <c r="C151" s="273" t="s">
+      <c r="C151" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D151" s="231" t="s">
@@ -6640,10 +6635,10 @@
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B152" s="273" t="s">
+      <c r="B152" s="234" t="s">
         <v>41</v>
       </c>
-      <c r="C152" s="273" t="s">
+      <c r="C152" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D152" s="231" t="s">
@@ -6654,10 +6649,10 @@
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B153" s="273" t="s">
+      <c r="B153" s="234" t="s">
         <v>513</v>
       </c>
-      <c r="C153" s="273" t="s">
+      <c r="C153" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D153" s="231" t="s">
@@ -6668,10 +6663,10 @@
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B154" s="273" t="s">
+      <c r="B154" s="234" t="s">
         <v>532</v>
       </c>
-      <c r="C154" s="273" t="s">
+      <c r="C154" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D154" s="231" t="s">
@@ -6682,10 +6677,10 @@
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B155" s="273" t="s">
+      <c r="B155" s="234" t="s">
         <v>518</v>
       </c>
-      <c r="C155" s="273" t="s">
+      <c r="C155" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D155" s="231" t="s">
@@ -6696,10 +6691,10 @@
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B156" s="273" t="s">
+      <c r="B156" s="234" t="s">
         <v>549</v>
       </c>
-      <c r="C156" s="273" t="s">
+      <c r="C156" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D156" s="231" t="s">
@@ -6710,10 +6705,10 @@
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B157" s="273" t="s">
+      <c r="B157" s="234" t="s">
         <v>550</v>
       </c>
-      <c r="C157" s="273" t="s">
+      <c r="C157" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D157" s="231" t="s">
@@ -6724,10 +6719,10 @@
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B158" s="273" t="s">
+      <c r="B158" s="234" t="s">
         <v>497</v>
       </c>
-      <c r="C158" s="273" t="s">
+      <c r="C158" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D158" s="231" t="s">
@@ -6738,10 +6733,10 @@
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B159" s="273" t="s">
+      <c r="B159" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="C159" s="273" t="s">
+      <c r="C159" s="234" t="s">
         <v>487</v>
       </c>
       <c r="D159" s="231" t="s">
@@ -6759,7 +6754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B7:AB27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -7214,10 +7209,10 @@
       <c r="E21" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="261" t="s">
+      <c r="F21" s="264" t="s">
         <v>255</v>
       </c>
-      <c r="G21" s="261"/>
+      <c r="G21" s="264"/>
     </row>
     <row r="22" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
@@ -7258,7 +7253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="C7:V47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -7815,10 +7810,10 @@
       <c r="F41" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="261" t="s">
+      <c r="G41" s="264" t="s">
         <v>255</v>
       </c>
-      <c r="H41" s="261"/>
+      <c r="H41" s="264"/>
     </row>
     <row r="42" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="16" t="s">
@@ -7859,7 +7854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="E2:X23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -7867,27 +7862,27 @@
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="5:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="245" t="s">
+      <c r="E2" s="248" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="245"/>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="245"/>
-      <c r="S2" s="245"/>
-      <c r="T2" s="245"/>
-      <c r="U2" s="245"/>
-      <c r="V2" s="245"/>
-      <c r="W2" s="245"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="248"/>
+      <c r="L2" s="248"/>
+      <c r="M2" s="248"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="248"/>
+      <c r="P2" s="248"/>
+      <c r="Q2" s="248"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="248"/>
+      <c r="T2" s="248"/>
+      <c r="U2" s="248"/>
+      <c r="V2" s="248"/>
+      <c r="W2" s="248"/>
     </row>
     <row r="3" spans="5:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="92"/>
@@ -7911,27 +7906,27 @@
       <c r="W3" s="94"/>
     </row>
     <row r="4" spans="5:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="262" t="s">
+      <c r="E4" s="265" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="263"/>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
-      <c r="K4" s="263"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="263"/>
-      <c r="S4" s="263"/>
-      <c r="T4" s="263"/>
-      <c r="U4" s="263"/>
-      <c r="V4" s="263"/>
-      <c r="W4" s="264"/>
+      <c r="F4" s="266"/>
+      <c r="G4" s="266"/>
+      <c r="H4" s="266"/>
+      <c r="I4" s="266"/>
+      <c r="J4" s="266"/>
+      <c r="K4" s="266"/>
+      <c r="L4" s="266"/>
+      <c r="M4" s="266"/>
+      <c r="N4" s="266"/>
+      <c r="O4" s="266"/>
+      <c r="P4" s="266"/>
+      <c r="Q4" s="266"/>
+      <c r="R4" s="266"/>
+      <c r="S4" s="266"/>
+      <c r="T4" s="266"/>
+      <c r="U4" s="266"/>
+      <c r="V4" s="266"/>
+      <c r="W4" s="267"/>
     </row>
     <row r="5" spans="5:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="84"/>
@@ -8146,7 +8141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:V34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -8407,10 +8402,10 @@
       </c>
       <c r="K23" s="103"/>
       <c r="M23" s="102"/>
-      <c r="P23" s="265" t="s">
+      <c r="P23" s="268" t="s">
         <v>191</v>
       </c>
-      <c r="Q23" s="266"/>
+      <c r="Q23" s="269"/>
       <c r="S23" s="108" t="s">
         <v>23</v>
       </c>
@@ -8561,7 +8556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B3:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -8669,9 +8664,9 @@
       <c r="D10" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="267"/>
-      <c r="F10" s="268"/>
-      <c r="G10" s="269"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="271"/>
+      <c r="G10" s="272"/>
       <c r="H10" s="78" t="s">
         <v>7</v>
       </c>
@@ -8769,11 +8764,11 @@
       <c r="D19" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="267"/>
-      <c r="F19" s="268"/>
-      <c r="G19" s="268"/>
-      <c r="H19" s="268"/>
-      <c r="I19" s="269"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="271"/>
+      <c r="G19" s="271"/>
+      <c r="H19" s="271"/>
+      <c r="I19" s="272"/>
       <c r="J19" s="64"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8916,9 +8911,9 @@
       <c r="D37" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="267"/>
-      <c r="F37" s="268"/>
-      <c r="G37" s="269"/>
+      <c r="E37" s="270"/>
+      <c r="F37" s="271"/>
+      <c r="G37" s="272"/>
       <c r="H37" s="78" t="s">
         <v>7</v>
       </c>
@@ -9016,11 +9011,11 @@
       <c r="D46" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="267"/>
-      <c r="F46" s="268"/>
-      <c r="G46" s="268"/>
-      <c r="H46" s="268"/>
-      <c r="I46" s="269"/>
+      <c r="E46" s="270"/>
+      <c r="F46" s="271"/>
+      <c r="G46" s="271"/>
+      <c r="H46" s="271"/>
+      <c r="I46" s="272"/>
       <c r="J46" s="64"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9125,7 +9120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -9298,13 +9293,13 @@
       <c r="L13" s="213"/>
     </row>
     <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="233" t="s">
+      <c r="B14" s="236" t="s">
         <v>627</v>
       </c>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="235"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="238"/>
       <c r="G14" s="220">
         <v>0</v>
       </c>
@@ -9472,13 +9467,13 @@
       <c r="K28" s="218"/>
     </row>
     <row r="29" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="233" t="s">
+      <c r="B29" s="236" t="s">
         <v>634</v>
       </c>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="235"/>
+      <c r="C29" s="237"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="237"/>
+      <c r="F29" s="238"/>
       <c r="G29" s="224">
         <f>SUM(G22:G28)</f>
         <v>10</v>
@@ -9666,13 +9661,13 @@
       <c r="L43" s="213"/>
     </row>
     <row r="44" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="233" t="s">
+      <c r="B44" s="236" t="s">
         <v>634</v>
       </c>
-      <c r="C44" s="234"/>
-      <c r="D44" s="236"/>
-      <c r="E44" s="234"/>
-      <c r="F44" s="235"/>
+      <c r="C44" s="237"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="237"/>
+      <c r="F44" s="238"/>
       <c r="G44" s="224">
         <f>SUM(G37:G43)</f>
         <v>10</v>
@@ -9700,7 +9695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:C76"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -10001,7 +9996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:L41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -10966,14 +10961,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F2"/>
+  <autoFilter ref="A2:F2" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:N168"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -11042,7 +11037,7 @@
       <c r="A5" s="58">
         <v>1</v>
       </c>
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="240" t="s">
         <v>104</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -11080,7 +11075,7 @@
       <c r="A6" s="58">
         <v>1</v>
       </c>
-      <c r="B6" s="238"/>
+      <c r="B6" s="241"/>
       <c r="C6" s="34" t="s">
         <v>74</v>
       </c>
@@ -11114,7 +11109,7 @@
       <c r="A7" s="58">
         <v>1</v>
       </c>
-      <c r="B7" s="239"/>
+      <c r="B7" s="242"/>
       <c r="C7" s="34" t="s">
         <v>75</v>
       </c>
@@ -11142,7 +11137,7 @@
       <c r="A8" s="58">
         <v>2</v>
       </c>
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="243" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -11182,7 +11177,7 @@
       <c r="A9" s="58">
         <v>2</v>
       </c>
-      <c r="B9" s="238"/>
+      <c r="B9" s="241"/>
       <c r="C9" s="25" t="s">
         <v>4</v>
       </c>
@@ -11220,7 +11215,7 @@
       <c r="A10" s="58">
         <v>2</v>
       </c>
-      <c r="B10" s="238"/>
+      <c r="B10" s="241"/>
       <c r="C10" s="25" t="s">
         <v>5</v>
       </c>
@@ -11258,7 +11253,7 @@
       <c r="A11" s="58">
         <v>2</v>
       </c>
-      <c r="B11" s="238"/>
+      <c r="B11" s="241"/>
       <c r="C11" s="25" t="s">
         <v>6</v>
       </c>
@@ -11296,7 +11291,7 @@
       <c r="A12" s="58">
         <v>2</v>
       </c>
-      <c r="B12" s="238"/>
+      <c r="B12" s="241"/>
       <c r="C12" s="25" t="s">
         <v>7</v>
       </c>
@@ -11328,7 +11323,7 @@
       <c r="A13" s="58">
         <v>2</v>
       </c>
-      <c r="B13" s="238"/>
+      <c r="B13" s="241"/>
       <c r="C13" s="25" t="s">
         <v>8</v>
       </c>
@@ -11364,7 +11359,7 @@
       <c r="A14" s="58">
         <v>2</v>
       </c>
-      <c r="B14" s="238"/>
+      <c r="B14" s="241"/>
       <c r="C14" s="25" t="s">
         <v>9</v>
       </c>
@@ -11400,7 +11395,7 @@
       <c r="A15" s="58">
         <v>2</v>
       </c>
-      <c r="B15" s="238"/>
+      <c r="B15" s="241"/>
       <c r="C15" s="25" t="s">
         <v>10</v>
       </c>
@@ -11432,7 +11427,7 @@
       <c r="A16" s="58">
         <v>2</v>
       </c>
-      <c r="B16" s="241"/>
+      <c r="B16" s="244"/>
       <c r="C16" s="30" t="s">
         <v>11</v>
       </c>
@@ -11464,7 +11459,7 @@
       <c r="A17" s="58">
         <v>3</v>
       </c>
-      <c r="B17" s="237" t="s">
+      <c r="B17" s="240" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -11498,7 +11493,7 @@
       <c r="A18" s="58">
         <v>3</v>
       </c>
-      <c r="B18" s="238"/>
+      <c r="B18" s="241"/>
       <c r="C18" s="25" t="s">
         <v>12</v>
       </c>
@@ -11528,7 +11523,7 @@
       <c r="A19" s="58">
         <v>3</v>
       </c>
-      <c r="B19" s="238"/>
+      <c r="B19" s="241"/>
       <c r="C19" s="25" t="s">
         <v>36</v>
       </c>
@@ -11560,7 +11555,7 @@
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
-      <c r="B20" s="238"/>
+      <c r="B20" s="241"/>
       <c r="C20" s="25" t="s">
         <v>13</v>
       </c>
@@ -11584,7 +11579,7 @@
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
-      <c r="B21" s="238"/>
+      <c r="B21" s="241"/>
       <c r="C21" s="29" t="s">
         <v>56</v>
       </c>
@@ -11612,7 +11607,7 @@
       <c r="A22" s="58">
         <v>3</v>
       </c>
-      <c r="B22" s="238"/>
+      <c r="B22" s="241"/>
       <c r="C22" s="29" t="s">
         <v>59</v>
       </c>
@@ -11642,7 +11637,7 @@
       <c r="A23" s="58">
         <v>3</v>
       </c>
-      <c r="B23" s="241"/>
+      <c r="B23" s="244"/>
       <c r="C23" s="38" t="s">
         <v>61</v>
       </c>
@@ -11670,7 +11665,7 @@
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
-      <c r="B24" s="242" t="s">
+      <c r="B24" s="245" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="40" t="s">
@@ -11692,7 +11687,7 @@
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
-      <c r="B25" s="243"/>
+      <c r="B25" s="246"/>
       <c r="C25" s="29" t="s">
         <v>52</v>
       </c>
@@ -11714,7 +11709,7 @@
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
-      <c r="B26" s="244"/>
+      <c r="B26" s="247"/>
       <c r="C26" s="38" t="s">
         <v>54</v>
       </c>
@@ -12882,7 +12877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -14090,7 +14085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C2:V24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -14550,7 +14545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="E4:AI32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -14558,39 +14553,39 @@
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="5:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="248" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="245"/>
-      <c r="J4" s="245"/>
-      <c r="K4" s="245"/>
-      <c r="L4" s="245"/>
-      <c r="M4" s="245"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="245"/>
-      <c r="S4" s="245"/>
-      <c r="T4" s="245"/>
-      <c r="U4" s="245"/>
-      <c r="V4" s="245"/>
-      <c r="W4" s="245"/>
-      <c r="X4" s="245"/>
-      <c r="Y4" s="245"/>
-      <c r="Z4" s="245"/>
-      <c r="AA4" s="245"/>
-      <c r="AB4" s="245"/>
-      <c r="AC4" s="245"/>
-      <c r="AD4" s="245"/>
-      <c r="AE4" s="245"/>
-      <c r="AF4" s="245"/>
-      <c r="AG4" s="245"/>
-      <c r="AH4" s="245"/>
-      <c r="AI4" s="245"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="248"/>
+      <c r="L4" s="248"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248"/>
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="248"/>
+      <c r="U4" s="248"/>
+      <c r="V4" s="248"/>
+      <c r="W4" s="248"/>
+      <c r="X4" s="248"/>
+      <c r="Y4" s="248"/>
+      <c r="Z4" s="248"/>
+      <c r="AA4" s="248"/>
+      <c r="AB4" s="248"/>
+      <c r="AC4" s="248"/>
+      <c r="AD4" s="248"/>
+      <c r="AE4" s="248"/>
+      <c r="AF4" s="248"/>
+      <c r="AG4" s="248"/>
+      <c r="AH4" s="248"/>
+      <c r="AI4" s="248"/>
     </row>
     <row r="5" spans="5:35" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="92"/>
@@ -14995,16 +14990,16 @@
     </row>
     <row r="31" spans="5:35" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E31" s="84"/>
-      <c r="AB31" s="246" t="s">
+      <c r="AB31" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="AC31" s="246"/>
-      <c r="AD31" s="246"/>
-      <c r="AF31" s="247" t="s">
+      <c r="AC31" s="249"/>
+      <c r="AD31" s="249"/>
+      <c r="AF31" s="250" t="s">
         <v>175</v>
       </c>
-      <c r="AG31" s="248"/>
-      <c r="AH31" s="248"/>
+      <c r="AG31" s="251"/>
+      <c r="AH31" s="251"/>
       <c r="AI31" s="85"/>
     </row>
     <row r="32" spans="5:35" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -15052,7 +15047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="C2:AE233"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
@@ -15109,11 +15104,11 @@
       <c r="G7" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H7" s="252" t="s">
+      <c r="H7" s="255" t="s">
         <v>417</v>
       </c>
-      <c r="I7" s="253"/>
-      <c r="J7" s="254"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="257"/>
     </row>
     <row r="9" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="125" t="s">
@@ -15200,11 +15195,11 @@
       <c r="G28" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H28" s="252" t="s">
+      <c r="H28" s="255" t="s">
         <v>417</v>
       </c>
-      <c r="I28" s="253"/>
-      <c r="J28" s="254"/>
+      <c r="I28" s="256"/>
+      <c r="J28" s="257"/>
     </row>
     <row r="30" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="125" t="s">
@@ -15252,15 +15247,15 @@
       </c>
     </row>
     <row r="38" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="256" t="s">
+      <c r="D38" s="259" t="s">
         <v>359</v>
       </c>
-      <c r="E38" s="256"/>
-      <c r="F38" s="256"/>
-      <c r="G38" s="256"/>
-      <c r="H38" s="256"/>
-      <c r="I38" s="256"/>
-      <c r="J38" s="256"/>
+      <c r="E38" s="259"/>
+      <c r="F38" s="259"/>
+      <c r="G38" s="259"/>
+      <c r="H38" s="259"/>
+      <c r="I38" s="259"/>
+      <c r="J38" s="259"/>
     </row>
     <row r="43" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="6" t="s">
@@ -15303,11 +15298,11 @@
       <c r="G49" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H49" s="252" t="s">
+      <c r="H49" s="255" t="s">
         <v>417</v>
       </c>
-      <c r="I49" s="253"/>
-      <c r="J49" s="254"/>
+      <c r="I49" s="256"/>
+      <c r="J49" s="257"/>
     </row>
     <row r="51" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" s="164" t="s">
@@ -15428,11 +15423,11 @@
       <c r="G70" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H70" s="252" t="s">
+      <c r="H70" s="255" t="s">
         <v>417</v>
       </c>
-      <c r="I70" s="253"/>
-      <c r="J70" s="254"/>
+      <c r="I70" s="256"/>
+      <c r="J70" s="257"/>
     </row>
     <row r="72" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="143" t="s">
@@ -15440,20 +15435,20 @@
       </c>
       <c r="E72" s="145"/>
       <c r="F72" s="146"/>
-      <c r="G72" s="257" t="s">
+      <c r="G72" s="260" t="s">
         <v>352</v>
       </c>
       <c r="H72" s="146"/>
-      <c r="I72" s="259" t="s">
+      <c r="I72" s="262" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="73" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E73" s="147"/>
       <c r="F73" s="148"/>
-      <c r="G73" s="258"/>
+      <c r="G73" s="261"/>
       <c r="H73" s="148"/>
-      <c r="I73" s="260"/>
+      <c r="I73" s="263"/>
     </row>
     <row r="74" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74" s="138" t="s">
@@ -15583,11 +15578,11 @@
       <c r="G91" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H91" s="252" t="s">
+      <c r="H91" s="255" t="s">
         <v>417</v>
       </c>
-      <c r="I91" s="253"/>
-      <c r="J91" s="254"/>
+      <c r="I91" s="256"/>
+      <c r="J91" s="257"/>
     </row>
     <row r="93" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D93" s="125" t="s">
@@ -15715,11 +15710,11 @@
       <c r="G112" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H112" s="252" t="s">
+      <c r="H112" s="255" t="s">
         <v>417</v>
       </c>
-      <c r="I112" s="253"/>
-      <c r="J112" s="254"/>
+      <c r="I112" s="256"/>
+      <c r="J112" s="257"/>
     </row>
     <row r="114" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D114" s="125" t="s">
@@ -15824,10 +15819,10 @@
       </c>
     </row>
     <row r="129" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G129" s="255" t="s">
+      <c r="G129" s="258" t="s">
         <v>394</v>
       </c>
-      <c r="H129" s="255"/>
+      <c r="H129" s="258"/>
     </row>
     <row r="130" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G130" s="142"/>
@@ -15859,11 +15854,11 @@
       <c r="G134" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H134" s="252" t="s">
+      <c r="H134" s="255" t="s">
         <v>417</v>
       </c>
-      <c r="I134" s="253"/>
-      <c r="J134" s="254"/>
+      <c r="I134" s="256"/>
+      <c r="J134" s="257"/>
     </row>
     <row r="136" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D136" s="125" t="s">
@@ -15989,11 +15984,11 @@
       <c r="G155" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H155" s="252" t="s">
+      <c r="H155" s="255" t="s">
         <v>417</v>
       </c>
-      <c r="I155" s="253"/>
-      <c r="J155" s="254"/>
+      <c r="I155" s="256"/>
+      <c r="J155" s="257"/>
     </row>
     <row r="157" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D157" s="125" t="s">
@@ -16117,11 +16112,11 @@
       <c r="G176" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H176" s="252" t="s">
+      <c r="H176" s="255" t="s">
         <v>417</v>
       </c>
-      <c r="I176" s="253"/>
-      <c r="J176" s="254"/>
+      <c r="I176" s="256"/>
+      <c r="J176" s="257"/>
     </row>
     <row r="178" spans="3:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D178" s="125" t="s">
@@ -16394,11 +16389,11 @@
       <c r="G197" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="H197" s="252" t="s">
+      <c r="H197" s="255" t="s">
         <v>417</v>
       </c>
-      <c r="I197" s="253"/>
-      <c r="J197" s="254"/>
+      <c r="I197" s="256"/>
+      <c r="J197" s="257"/>
     </row>
     <row r="199" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D199" s="125" t="s">
@@ -16567,10 +16562,10 @@
       <c r="S226" s="176" t="s">
         <v>345</v>
       </c>
-      <c r="T226" s="249" t="s">
+      <c r="T226" s="252" t="s">
         <v>417</v>
       </c>
-      <c r="U226" s="250"/>
+      <c r="U226" s="253"/>
       <c r="V226" s="182"/>
       <c r="W226" s="176" t="s">
         <v>347</v>
@@ -16604,9 +16599,9 @@
       <c r="P228" s="178" t="s">
         <v>352</v>
       </c>
-      <c r="Q228" s="249"/>
-      <c r="R228" s="251"/>
-      <c r="S228" s="250"/>
+      <c r="Q228" s="252"/>
+      <c r="R228" s="254"/>
+      <c r="S228" s="253"/>
       <c r="U228" s="182"/>
       <c r="V228" s="182"/>
       <c r="W228" s="182"/>
